--- a/Payment of Professional Fees 2.xlsx
+++ b/Payment of Professional Fees 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://elixirequities-my.sharepoint.com/personal/dm_elixirequities_com/Documents/Desktop/INCOME SCRUTINY FY 2022-23/DMC/LOE &amp; Instruction Notes - Word Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaysh\OneDrive\Desktop\Paisasmart\Invoice-creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="8_{B6BB0739-EFB1-4910-AFF0-F18CCE76AF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29E6AE57-6663-436C-B7A0-5ADEE1F58E9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFDD864-D2C9-4105-86BA-5DF7D5B5EACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09DF29FE-2A2E-4FC5-830E-AF0AAE3B277A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09DF29FE-2A2E-4FC5-830E-AF0AAE3B277A}"/>
   </bookViews>
   <sheets>
     <sheet name="REVISED PAYMENTS TO TRADERS" sheetId="1" r:id="rId1"/>
@@ -23,31 +23,20 @@
     <definedName name="cntl_sht_b">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="6690" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="72">
   <si>
     <t>YEAR</t>
   </si>
@@ -261,18 +250,21 @@
   <si>
     <t>RAHUL SANGHAVI</t>
   </si>
+  <si>
+    <t>ALNPM4364K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-409]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="[$-409]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +290,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -318,10 +315,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -332,13 +329,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -347,12 +344,15 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -369,10 +369,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -827,13 +827,13 @@
     <cacheField name="PAN" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="PROFESSIONAL FEES" numFmtId="165">
+    <cacheField name="PROFESSIONAL FEES" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000" maxValue="972500"/>
     </cacheField>
-    <cacheField name="OUT OF POCKET" numFmtId="164">
+    <cacheField name="OUT OF POCKET" numFmtId="43">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-61" maxValue="30258"/>
     </cacheField>
-    <cacheField name="TOTAL AMOUNT" numFmtId="166">
+    <cacheField name="TOTAL AMOUNT" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1105" maxValue="1002563"/>
     </cacheField>
   </cacheFields>
@@ -2611,7 +2611,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24B71B85-48FF-437C-8A08-A3C6F819F9C8}" name="PivotTable2" cacheId="6690" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24B71B85-48FF-437C-8A08-A3C6F819F9C8}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q2:R67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
@@ -2903,10 +2903,10 @@
     <dataField name="Sum of TOTAL AMOUNT" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -3242,32 +3242,32 @@
   <dimension ref="A1:R179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="28.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="17" max="17" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.44140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60">
+    <row r="1" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3350,18 +3350,18 @@
         <v>224067</v>
       </c>
       <c r="K2" s="14">
-        <f>C2-M2</f>
+        <f t="shared" ref="K2:K12" si="2">C2-M2</f>
         <v>44679</v>
       </c>
       <c r="L2" s="9">
-        <f t="shared" ref="L2:L33" si="2">I2/H2</f>
+        <f t="shared" ref="L2:L33" si="3">I2/H2</f>
         <v>3.0193103448275863E-2</v>
       </c>
       <c r="M2">
         <v>11</v>
       </c>
       <c r="N2">
-        <f>IF(AND(E3=E2,C3=C2),1,)</f>
+        <f t="shared" ref="N2:N33" si="4">IF(AND(E3=E2,C3=C2),1,)</f>
         <v>0</v>
       </c>
       <c r="O2">
@@ -3375,7 +3375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3410,22 +3410,22 @@
         <v>167138</v>
       </c>
       <c r="K3" s="14">
-        <f>C3-M3</f>
+        <f t="shared" si="2"/>
         <v>44718</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1716049382716049E-2</v>
       </c>
       <c r="M3">
         <v>7</v>
       </c>
       <c r="N3">
-        <f>IF(AND(E4=E3,C4=C3),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="3">IF(N3&gt;0,K3-K4,1)</f>
+        <f t="shared" ref="O3:O66" si="5">IF(N3&gt;0,K3-K4,1)</f>
         <v>1</v>
       </c>
       <c r="Q3" s="10" t="s">
@@ -3435,7 +3435,7 @@
         <v>2105669</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3470,22 +3470,22 @@
         <v>86524</v>
       </c>
       <c r="K4" s="14">
-        <f>C4-M4</f>
+        <f t="shared" si="2"/>
         <v>44737</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0047619047619049E-2</v>
       </c>
       <c r="M4">
         <v>13</v>
       </c>
       <c r="N4">
-        <f>IF(AND(E5=E4,C5=C4),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q4" s="11" t="s">
@@ -3495,7 +3495,7 @@
         <v>1105400</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3530,22 +3530,22 @@
         <v>213212</v>
       </c>
       <c r="K5" s="14">
-        <f>C5-M5</f>
+        <f t="shared" si="2"/>
         <v>44772</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0009661835748793E-2</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
       <c r="N5">
-        <f>IF(AND(E6=E5,C6=C5),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q5" s="11" t="s">
@@ -3555,7 +3555,7 @@
         <v>1000269</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3590,22 +3590,22 @@
         <v>3740</v>
       </c>
       <c r="K6" s="14">
-        <f>C6-M6</f>
+        <f t="shared" si="2"/>
         <v>44802</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8571428571428575E-2</v>
       </c>
       <c r="M6">
         <v>14</v>
       </c>
       <c r="N6">
-        <f>IF(AND(E7=E6,C7=C6),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q6" s="10" t="s">
@@ -3615,7 +3615,7 @@
         <v>879134</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3650,22 +3650,22 @@
         <v>8188</v>
       </c>
       <c r="K7" s="14">
-        <f>C7-M7</f>
+        <f t="shared" si="2"/>
         <v>44868</v>
       </c>
       <c r="L7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.35E-2</v>
       </c>
       <c r="M7">
         <v>9</v>
       </c>
       <c r="N7">
-        <f>IF(AND(E8=E7,C8=C7),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q7" s="11" t="s">
@@ -3675,7 +3675,7 @@
         <v>429007</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3710,22 +3710,22 @@
         <v>151120</v>
       </c>
       <c r="K8" s="14">
-        <f>C8-M8</f>
+        <f t="shared" si="2"/>
         <v>44900</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1535836177474401E-2</v>
       </c>
       <c r="M8">
         <v>7</v>
       </c>
       <c r="N8">
-        <f>IF(AND(E9=E8,C9=C8),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q8" s="11" t="s">
@@ -3735,7 +3735,7 @@
         <v>450127</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3770,22 +3770,22 @@
         <v>141716</v>
       </c>
       <c r="K9" s="14">
-        <f>C9-M9</f>
+        <f t="shared" si="2"/>
         <v>44918</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0661818181818182E-2</v>
       </c>
       <c r="M9">
         <v>17</v>
       </c>
       <c r="N9">
-        <f>IF(AND(E10=E9,C10=C9),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q9" s="10" t="s">
@@ -3795,7 +3795,7 @@
         <v>356608</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3830,22 +3830,22 @@
         <v>25837</v>
       </c>
       <c r="K10" s="14">
-        <f>C10-M10</f>
+        <f t="shared" si="2"/>
         <v>44956</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3480000000000003E-2</v>
       </c>
       <c r="M10">
         <v>12</v>
       </c>
       <c r="N10">
-        <f>IF(AND(E11=E10,C11=C10),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -3855,7 +3855,7 @@
         <v>356608</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3890,22 +3890,22 @@
         <v>67116</v>
       </c>
       <c r="K11" s="14">
-        <f>C11-M11</f>
+        <f t="shared" si="2"/>
         <v>44973</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2553846153846155E-2</v>
       </c>
       <c r="M11">
         <v>18</v>
       </c>
       <c r="N11">
-        <f>IF(AND(E12=E11,C12=C11),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q11" s="10" t="s">
@@ -3915,7 +3915,7 @@
         <v>1428775</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3950,22 +3950,22 @@
         <v>1000269</v>
       </c>
       <c r="K12" s="14">
-        <f>C12-M12</f>
+        <f t="shared" si="2"/>
         <v>44999</v>
       </c>
       <c r="L12" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.067387944358578E-2</v>
       </c>
       <c r="M12">
         <v>17</v>
       </c>
       <c r="N12">
-        <f>IF(AND(E13=E12,C13=C12),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q12" s="11" t="s">
@@ -3975,7 +3975,7 @@
         <v>601124</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4013,18 +4013,18 @@
         <v>45016</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6375E-2</v>
       </c>
       <c r="M13">
         <v>20</v>
       </c>
       <c r="N13">
-        <f>IF(AND(E14=E13,C14=C13),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q13" s="11" t="s">
@@ -4034,7 +4034,7 @@
         <v>602651</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4069,22 +4069,22 @@
         <v>88150</v>
       </c>
       <c r="K14" s="14">
-        <f>C14-M14</f>
+        <f t="shared" ref="K14:K24" si="6">C14-M14</f>
         <v>44672</v>
       </c>
       <c r="L14" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0994152046783626E-2</v>
       </c>
       <c r="M14">
         <v>18</v>
       </c>
       <c r="N14">
-        <f>IF(AND(E15=E14,C15=C14),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q14" s="11" t="s">
@@ -4094,7 +4094,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -4129,22 +4129,22 @@
         <v>62963</v>
       </c>
       <c r="K15" s="14">
-        <f>C15-M15</f>
+        <f t="shared" si="6"/>
         <v>44720</v>
       </c>
       <c r="L15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2180327868852457E-2</v>
       </c>
       <c r="M15">
         <v>7</v>
       </c>
       <c r="N15">
-        <f>IF(AND(E16=E15,C16=C15),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q15" s="10" t="s">
@@ -4154,7 +4154,7 @@
         <v>419134</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4189,22 +4189,22 @@
         <v>18335</v>
       </c>
       <c r="K16" s="14">
-        <f>C16-M16</f>
+        <f t="shared" si="6"/>
         <v>44740</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.861111111111111E-2</v>
       </c>
       <c r="M16">
         <v>10</v>
       </c>
       <c r="N16">
-        <f>IF(AND(E17=E16,C17=C16),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -4214,7 +4214,7 @@
         <v>88809</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4249,22 +4249,22 @@
         <v>84854</v>
       </c>
       <c r="K17" s="14">
-        <f>C17-M17</f>
+        <f t="shared" si="6"/>
         <v>44767</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8533333333333334E-2</v>
       </c>
       <c r="M17">
         <v>16</v>
       </c>
       <c r="N17">
-        <f>IF(AND(E18=E17,C18=C17),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q17" s="11" t="s">
@@ -4274,7 +4274,7 @@
         <v>330325</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4309,22 +4309,22 @@
         <v>3808</v>
       </c>
       <c r="K18" s="14">
-        <f>C18-M18</f>
+        <f t="shared" si="6"/>
         <v>44802</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="M18">
         <v>14</v>
       </c>
       <c r="N18">
-        <f>IF(AND(E19=E18,C19=C18),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q18" s="10" t="s">
@@ -4334,7 +4334,7 @@
         <v>1330573</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -4369,22 +4369,22 @@
         <v>49304</v>
       </c>
       <c r="K19" s="14">
-        <f>C19-M19</f>
+        <f t="shared" si="6"/>
         <v>44833</v>
       </c>
       <c r="L19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7166666666666665E-2</v>
       </c>
       <c r="M19">
         <v>11</v>
       </c>
       <c r="N19">
-        <f>IF(AND(E20=E19,C20=C19),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q19" s="11" t="s">
@@ -4394,7 +4394,7 @@
         <v>601257</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -4429,22 +4429,22 @@
         <v>3556</v>
       </c>
       <c r="K20" s="14">
-        <f>C20-M20</f>
+        <f t="shared" si="6"/>
         <v>44858</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="M20">
         <v>19</v>
       </c>
       <c r="N20">
-        <f>IF(AND(E21=E20,C21=C20),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q20" s="11" t="s">
@@ -4454,7 +4454,7 @@
         <v>729316</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -4489,22 +4489,22 @@
         <v>23418</v>
       </c>
       <c r="K21" s="14">
-        <f>C21-M21</f>
+        <f t="shared" si="6"/>
         <v>44898</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="M21">
         <v>9</v>
       </c>
       <c r="N21">
-        <f>IF(AND(E22=E21,C22=C21),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q21" s="10" t="s">
@@ -4514,7 +4514,7 @@
         <v>419639</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4549,22 +4549,22 @@
         <v>37509</v>
       </c>
       <c r="K22" s="14">
-        <f>C22-M22</f>
+        <f t="shared" si="6"/>
         <v>44915</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7643835616438357E-2</v>
       </c>
       <c r="M22">
         <v>20</v>
       </c>
       <c r="N22">
-        <f>IF(AND(E23=E22,C23=C22),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q22" s="11" t="s">
@@ -4574,7 +4574,7 @@
         <v>419639</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -4609,22 +4609,22 @@
         <v>35759</v>
       </c>
       <c r="K23" s="14">
-        <f>C23-M23</f>
+        <f t="shared" si="6"/>
         <v>44977</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6492753623188406E-2</v>
       </c>
       <c r="M23">
         <v>14</v>
       </c>
       <c r="N23">
-        <f>IF(AND(E24=E23,C24=C23),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q23" s="10" t="s">
@@ -4634,7 +4634,7 @@
         <v>174233</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -4669,22 +4669,22 @@
         <v>450127</v>
       </c>
       <c r="K24" s="14">
-        <f>C24-M24</f>
+        <f t="shared" si="6"/>
         <v>44991</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1218785796105385E-2</v>
       </c>
       <c r="M24">
         <v>19</v>
       </c>
       <c r="N24">
-        <f>IF(AND(E25=E24,C25=C24),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q24" s="11" t="s">
@@ -4694,7 +4694,7 @@
         <v>174233</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -4732,18 +4732,18 @@
         <v>45016</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1512195121951222E-2</v>
       </c>
       <c r="M25">
         <v>12</v>
       </c>
       <c r="N25">
-        <f>IF(AND(E26=E25,C26=C25),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q25" s="10" t="s">
@@ -4753,7 +4753,7 @@
         <v>146372</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -4788,22 +4788,22 @@
         <v>130930</v>
       </c>
       <c r="K26" s="14">
-        <f>C26-M26</f>
+        <f t="shared" ref="K26:K31" si="7">C26-M26</f>
         <v>44683</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.094488188976378E-2</v>
       </c>
       <c r="M26">
         <v>7</v>
       </c>
       <c r="N26">
-        <f>IF(AND(E27=E26,C27=C26),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q26" s="11" t="s">
@@ -4813,7 +4813,7 @@
         <v>146372</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -4848,22 +4848,22 @@
         <v>54114</v>
       </c>
       <c r="K27" s="14">
-        <f>C27-M27</f>
+        <f t="shared" si="7"/>
         <v>44728</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0742857142857141E-2</v>
       </c>
       <c r="M27">
         <v>7</v>
       </c>
       <c r="N27">
-        <f>IF(AND(E28=E27,C28=C27),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q27" s="10" t="s">
@@ -4873,7 +4873,7 @@
         <v>1044687</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -4908,22 +4908,22 @@
         <v>84665</v>
       </c>
       <c r="K28" s="14">
-        <f>C28-M28</f>
+        <f t="shared" si="7"/>
         <v>44771</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="M28">
         <v>12</v>
       </c>
       <c r="N28">
-        <f>IF(AND(E29=E28,C29=C28),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q28" s="11" t="s">
@@ -4933,7 +4933,7 @@
         <v>522343</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -4968,22 +4968,22 @@
         <v>12246</v>
       </c>
       <c r="K29" s="14">
-        <f>C29-M29</f>
+        <f t="shared" si="7"/>
         <v>44804</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0500000000000001E-2</v>
       </c>
       <c r="M29">
         <v>12</v>
       </c>
       <c r="N29">
-        <f>IF(AND(E30=E29,C30=C29),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q29" s="11" t="s">
@@ -4993,7 +4993,7 @@
         <v>522344</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -5028,22 +5028,22 @@
         <v>1105</v>
       </c>
       <c r="K30" s="14">
-        <f>C30-M30</f>
+        <f t="shared" si="7"/>
         <v>44861</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.105</v>
       </c>
       <c r="M30">
         <v>16</v>
       </c>
       <c r="N30">
-        <f>IF(AND(E31=E30,C31=C30),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q30" s="10" t="s">
@@ -5053,7 +5053,7 @@
         <v>1718438</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -5088,22 +5088,22 @@
         <v>66371</v>
       </c>
       <c r="K31" s="14">
-        <f>C31-M31</f>
+        <f t="shared" si="7"/>
         <v>44889</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9007751937984497E-2</v>
       </c>
       <c r="M31">
         <v>18</v>
       </c>
       <c r="N31">
-        <f>IF(AND(E32=E31,C32=C31),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q31" s="11" t="s">
@@ -5113,7 +5113,7 @@
         <v>1128170</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -5151,18 +5151,18 @@
         <v>45016</v>
       </c>
       <c r="L32" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5285714285714286E-2</v>
       </c>
       <c r="M32">
         <v>10</v>
       </c>
       <c r="N32">
-        <f>IF(AND(E33=E32,C33=C32),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q32" s="11" t="s">
@@ -5172,7 +5172,7 @@
         <v>590268</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -5207,22 +5207,22 @@
         <v>100123</v>
       </c>
       <c r="K33" s="14">
-        <f>C33-M33</f>
+        <f t="shared" ref="K33:K54" si="8">C33-M33</f>
         <v>44778</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2195876288659796E-2</v>
       </c>
       <c r="M33">
         <v>13</v>
       </c>
       <c r="N33">
-        <f>IF(AND(E34=E33,C34=C33),1,)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q33" s="10" t="s">
@@ -5232,7 +5232,7 @@
         <v>586077</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -5256,33 +5256,33 @@
         <v>DXOPG6060A</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" ref="H34:H65" si="4">MROUND((J34*0.97),500)</f>
+        <f t="shared" ref="H34:H65" si="9">MROUND((J34*0.97),500)</f>
         <v>337500</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" ref="I34:I65" si="5">J34-H34</f>
+        <f t="shared" ref="I34:I65" si="10">J34-H34</f>
         <v>10623</v>
       </c>
       <c r="J34" s="5">
         <v>348123</v>
       </c>
       <c r="K34" s="14">
-        <f>C34-M34</f>
+        <f t="shared" si="8"/>
         <v>44786</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" ref="L34:L65" si="6">I34/H34</f>
+        <f t="shared" ref="L34:L65" si="11">I34/H34</f>
         <v>3.1475555555555555E-2</v>
       </c>
       <c r="M34">
         <v>9</v>
       </c>
       <c r="N34">
-        <f>IF(AND(E35=E34,C35=C34),1,)</f>
+        <f t="shared" ref="N34:N65" si="12">IF(AND(E35=E34,C35=C34),1,)</f>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q34" s="11" t="s">
@@ -5292,7 +5292,7 @@
         <v>586077</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -5316,33 +5316,33 @@
         <v>DXOPG6060A</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>215500</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6833</v>
       </c>
       <c r="J35" s="5">
         <v>222333</v>
       </c>
       <c r="K35" s="14">
-        <f>C35-M35</f>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="L35" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.1707656612529E-2</v>
       </c>
       <c r="M35">
         <v>20</v>
       </c>
       <c r="N35">
-        <f>IF(AND(E36=E35,C36=C35),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q35" s="10" t="s">
@@ -5352,7 +5352,7 @@
         <v>1929561</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -5376,33 +5376,33 @@
         <v>DXOPG6060A</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>113500</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3393</v>
       </c>
       <c r="J36" s="5">
         <v>116893</v>
       </c>
       <c r="K36" s="14">
-        <f>C36-M36</f>
+        <f t="shared" si="8"/>
         <v>44917</v>
       </c>
       <c r="L36" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.9894273127753303E-2</v>
       </c>
       <c r="M36">
         <v>18</v>
       </c>
       <c r="N36">
-        <f>IF(AND(E37=E36,C37=C36),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q36" s="11" t="s">
@@ -5412,7 +5412,7 @@
         <v>864741</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -5436,33 +5436,33 @@
         <v>HGUPS3319K</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>971000</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>30258</v>
       </c>
       <c r="J37" s="5">
         <v>1001258</v>
       </c>
       <c r="K37" s="14">
-        <f>C37-M37</f>
+        <f t="shared" si="8"/>
         <v>44959</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.1161688980432544E-2</v>
       </c>
       <c r="M37">
         <v>9</v>
       </c>
       <c r="N37">
-        <f>IF(AND(E38=E37,C38=C37),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q37" s="11" t="s">
@@ -5472,7 +5472,7 @@
         <v>1064820</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -5496,33 +5496,33 @@
         <v>DXOPG6060A</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>267000</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8123</v>
       </c>
       <c r="J38" s="5">
         <v>275123</v>
       </c>
       <c r="K38" s="14">
-        <f>C38-M38</f>
+        <f t="shared" si="8"/>
         <v>44984</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.0423220973782771E-2</v>
       </c>
       <c r="M38">
         <v>7</v>
       </c>
       <c r="N38">
-        <f>IF(AND(E39=E38,C39=C38),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q38" s="10" t="s">
@@ -5532,7 +5532,7 @@
         <v>140370</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -5556,33 +5556,33 @@
         <v>BGAPS3830F</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>584500</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>18151</v>
       </c>
       <c r="J39" s="5">
         <v>602651</v>
       </c>
       <c r="K39" s="14">
-        <f>C39-M39</f>
+        <f t="shared" si="8"/>
         <v>44781</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.1053892215568861E-2</v>
       </c>
       <c r="M39">
         <v>14</v>
       </c>
       <c r="N39">
-        <f>IF(AND(E40=E39,C40=C39),1,)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q39" s="11" t="s">
@@ -5592,7 +5592,7 @@
         <v>140370</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -5616,33 +5616,33 @@
         <v>DNQPS8987E</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>583000</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>18124</v>
       </c>
       <c r="J40" s="5">
         <v>601124</v>
       </c>
       <c r="K40" s="14">
-        <f>C40-M40</f>
+        <f t="shared" si="8"/>
         <v>44781</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.1087478559176672E-2</v>
       </c>
       <c r="M40">
         <v>14</v>
       </c>
       <c r="N40">
-        <f>IF(AND(E41=E40,C41=C40),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q40" s="10" t="s">
@@ -5652,7 +5652,7 @@
         <v>4404827</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -5676,33 +5676,33 @@
         <v>BBDPG9885L</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>218500</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6500</v>
       </c>
       <c r="J41" s="5">
         <v>225000</v>
       </c>
       <c r="K41" s="14">
-        <f>C41-M41</f>
+        <f t="shared" si="8"/>
         <v>44896</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.9748283752860413E-2</v>
       </c>
       <c r="M41">
         <v>11</v>
       </c>
       <c r="N41">
-        <f>IF(AND(E42=E41,C42=C41),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q41" s="11" t="s">
@@ -5712,7 +5712,7 @@
         <v>1001239</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -5736,33 +5736,33 @@
         <v>EMQPS1557G</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>42500</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1252</v>
       </c>
       <c r="J42" s="5">
         <v>43752</v>
       </c>
       <c r="K42" s="14">
-        <f>C42-M42</f>
+        <f t="shared" si="8"/>
         <v>44673</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.9458823529411763E-2</v>
       </c>
       <c r="M42">
         <v>17</v>
       </c>
       <c r="N42">
-        <f>IF(AND(E43=E42,C43=C42),1,)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q42" s="11" t="s">
@@ -5772,7 +5772,7 @@
         <v>1398464</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -5796,33 +5796,33 @@
         <v>BPAPS0225M</v>
       </c>
       <c r="H43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>42500</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1252</v>
       </c>
       <c r="J43" s="5">
         <v>43752</v>
       </c>
       <c r="K43" s="14">
-        <f>C43-M43</f>
+        <f t="shared" si="8"/>
         <v>44673</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.9458823529411763E-2</v>
       </c>
       <c r="M43">
         <v>17</v>
       </c>
       <c r="N43">
-        <f>IF(AND(E44=E43,C44=C43),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q43" s="11" t="s">
@@ -5832,7 +5832,7 @@
         <v>1002563</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -5856,33 +5856,33 @@
         <v>EMQPS1557G</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19000</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>485</v>
       </c>
       <c r="J44" s="5">
         <v>19485</v>
       </c>
       <c r="K44" s="14">
-        <f>C44-M44</f>
+        <f t="shared" si="8"/>
         <v>44712</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.5526315789473685E-2</v>
       </c>
       <c r="M44">
         <v>16</v>
       </c>
       <c r="N44">
-        <f>IF(AND(E45=E44,C45=C44),1,)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q44" s="11" t="s">
@@ -5892,7 +5892,7 @@
         <v>1002561</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -5916,33 +5916,33 @@
         <v>BPAPS0225M</v>
       </c>
       <c r="H45" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19000</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>485</v>
       </c>
       <c r="J45" s="5">
         <v>19485</v>
       </c>
       <c r="K45" s="14">
-        <f>C45-M45</f>
+        <f t="shared" si="8"/>
         <v>44712</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.5526315789473685E-2</v>
       </c>
       <c r="M45">
         <v>16</v>
       </c>
       <c r="N45">
-        <f>IF(AND(E46=E45,C46=C45),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q45" s="10" t="s">
@@ -5952,7 +5952,7 @@
         <v>2063853</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -5976,33 +5976,33 @@
         <v>BPAPS0225M</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12500</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="J46" s="5">
         <v>12792</v>
       </c>
       <c r="K46" s="14">
-        <f>C46-M46</f>
+        <f t="shared" si="8"/>
         <v>44735</v>
       </c>
       <c r="L46" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.3359999999999999E-2</v>
       </c>
       <c r="M46">
         <v>15</v>
       </c>
       <c r="N46">
-        <f>IF(AND(E47=E46,C47=C46),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q46" s="11" t="s">
@@ -6012,7 +6012,7 @@
         <v>1062595</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -6036,33 +6036,33 @@
         <v>BPAPS0225M</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>26500</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>601</v>
       </c>
       <c r="J47" s="5">
         <v>27101</v>
       </c>
       <c r="K47" s="14">
-        <f>C47-M47</f>
+        <f t="shared" si="8"/>
         <v>44770</v>
       </c>
       <c r="L47" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.2679245283018869E-2</v>
       </c>
       <c r="M47">
         <v>13</v>
       </c>
       <c r="N47">
-        <f>IF(AND(E48=E47,C48=C47),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q47" s="11" t="s">
@@ -6072,7 +6072,7 @@
         <v>1001258</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -6096,33 +6096,33 @@
         <v>EMQPS1557G</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>25000</v>
       </c>
       <c r="I48" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>572</v>
       </c>
       <c r="J48" s="5">
         <v>25572</v>
       </c>
       <c r="K48" s="14">
-        <f>C48-M48</f>
+        <f t="shared" si="8"/>
         <v>44805</v>
       </c>
       <c r="L48" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.2880000000000001E-2</v>
       </c>
       <c r="M48">
         <v>12</v>
       </c>
       <c r="N48">
-        <f>IF(AND(E49=E48,C49=C48),1,)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q48" s="10" t="s">
@@ -6132,7 +6132,7 @@
         <v>2002609</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -6156,33 +6156,33 @@
         <v>BPAPS0225M</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>25000</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>573</v>
       </c>
       <c r="J49" s="5">
         <v>25573</v>
       </c>
       <c r="K49" s="14">
-        <f>C49-M49</f>
+        <f t="shared" si="8"/>
         <v>44805</v>
       </c>
       <c r="L49" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.2919999999999999E-2</v>
       </c>
       <c r="M49">
         <v>12</v>
       </c>
       <c r="N49">
-        <f>IF(AND(E50=E49,C50=C49),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q49" s="11" t="s">
@@ -6192,7 +6192,7 @@
         <v>1002351</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -6216,33 +6216,33 @@
         <v>BPAPS0225M</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>33000</v>
       </c>
       <c r="I50" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>897</v>
       </c>
       <c r="J50" s="5">
         <v>33897</v>
       </c>
       <c r="K50" s="14">
-        <f>C50-M50</f>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="L50" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.7181818181818182E-2</v>
       </c>
       <c r="M50">
         <v>18</v>
       </c>
       <c r="N50">
-        <f>IF(AND(E51=E50,C51=C50),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q50" s="11" t="s">
@@ -6252,7 +6252,7 @@
         <v>1000258</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -6276,33 +6276,33 @@
         <v>BPAPS0225M</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>25500</v>
       </c>
       <c r="I51" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1011</v>
       </c>
       <c r="J51" s="5">
         <v>26511</v>
       </c>
       <c r="K51" s="14">
-        <f>C51-M51</f>
+        <f t="shared" si="8"/>
         <v>44866</v>
       </c>
       <c r="L51" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.964705882352941E-2</v>
       </c>
       <c r="M51">
         <v>11</v>
       </c>
       <c r="N51">
-        <f>IF(AND(E52=E51,C52=C51),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q51" s="10" t="s">
@@ -6312,7 +6312,7 @@
         <v>719379</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -6336,33 +6336,33 @@
         <v>BPAPS0225M</v>
       </c>
       <c r="H52" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>34000</v>
       </c>
       <c r="I52" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>923</v>
       </c>
       <c r="J52" s="5">
         <v>34923</v>
       </c>
       <c r="K52" s="14">
-        <f>C52-M52</f>
+        <f t="shared" si="8"/>
         <v>44890</v>
       </c>
       <c r="L52" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.7147058823529413E-2</v>
       </c>
       <c r="M52">
         <v>17</v>
       </c>
       <c r="N52">
-        <f>IF(AND(E53=E52,C53=C52),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q52" s="11" t="s">
@@ -6372,7 +6372,7 @@
         <v>719379</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -6396,33 +6396,33 @@
         <v>BPAPS0225M</v>
       </c>
       <c r="H53" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17000</v>
       </c>
       <c r="I53" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>299</v>
       </c>
       <c r="J53" s="5">
         <v>17299</v>
       </c>
       <c r="K53" s="14">
-        <f>C53-M53</f>
+        <f t="shared" si="8"/>
         <v>44926</v>
       </c>
       <c r="L53" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.7588235294117648E-2</v>
       </c>
       <c r="M53">
         <v>9</v>
       </c>
       <c r="N53">
-        <f>IF(AND(E54=E53,C54=C53),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q53" s="10" t="s">
@@ -6432,7 +6432,7 @@
         <v>2000560</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -6456,33 +6456,33 @@
         <v>BPAPS0225M</v>
       </c>
       <c r="H54" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>25000</v>
       </c>
       <c r="I54" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>516</v>
       </c>
       <c r="J54" s="5">
         <v>25516</v>
       </c>
       <c r="K54" s="14">
-        <f>C54-M54</f>
+        <f t="shared" si="8"/>
         <v>44979</v>
       </c>
       <c r="L54" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.0639999999999999E-2</v>
       </c>
       <c r="M54">
         <v>12</v>
       </c>
       <c r="N54">
-        <f>IF(AND(E55=E54,C55=C54),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q54" s="11" t="s">
@@ -6492,7 +6492,7 @@
         <v>1000693</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -6516,11 +6516,11 @@
         <v>BPAPS0225M</v>
       </c>
       <c r="H55" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>61500</v>
       </c>
       <c r="I55" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1976</v>
       </c>
       <c r="J55" s="5">
@@ -6530,18 +6530,18 @@
         <v>45016</v>
       </c>
       <c r="L55" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.2130081300813011E-2</v>
       </c>
       <c r="M55">
         <v>15</v>
       </c>
       <c r="N55">
-        <f>IF(AND(E56=E55,C56=C55),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q55" s="11" t="s">
@@ -6551,7 +6551,7 @@
         <v>999867</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -6575,33 +6575,33 @@
         <v>EQVPS8470R</v>
       </c>
       <c r="H56" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>176500</v>
       </c>
       <c r="I56" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5567</v>
       </c>
       <c r="J56" s="5">
         <v>182067</v>
       </c>
       <c r="K56" s="14">
-        <f>C56-M56</f>
+        <f t="shared" ref="K56:K80" si="13">C56-M56</f>
         <v>44680</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.1541076487252122E-2</v>
       </c>
       <c r="M56">
         <v>10</v>
       </c>
       <c r="N56">
-        <f>IF(AND(E57=E56,C57=C56),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q56" s="10" t="s">
@@ -6611,7 +6611,7 @@
         <v>1895989</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -6635,33 +6635,33 @@
         <v>EQVPS8470R</v>
       </c>
       <c r="H57" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>36500</v>
       </c>
       <c r="I57" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>897</v>
       </c>
       <c r="J57" s="5">
         <v>37397</v>
       </c>
       <c r="K57" s="14">
-        <f>C57-M57</f>
+        <f t="shared" si="13"/>
         <v>44740</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.4575342465753425E-2</v>
       </c>
       <c r="M57">
         <v>10</v>
       </c>
       <c r="N57">
-        <f>IF(AND(E58=E57,C58=C57),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q57" s="11" t="s">
@@ -6671,7 +6671,7 @@
         <v>1000236</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -6695,33 +6695,33 @@
         <v>EQVPS8470R</v>
       </c>
       <c r="H58" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>129500</v>
       </c>
       <c r="I58" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3883</v>
       </c>
       <c r="J58" s="5">
         <v>133383</v>
       </c>
       <c r="K58" s="14">
-        <f>C58-M58</f>
+        <f t="shared" si="13"/>
         <v>44771</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.9984555984555985E-2</v>
       </c>
       <c r="M58">
         <v>12</v>
       </c>
       <c r="N58">
-        <f>IF(AND(E59=E58,C59=C58),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q58" s="11" t="s">
@@ -6731,7 +6731,7 @@
         <v>895753</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -6755,33 +6755,33 @@
         <v>EQVPS8470R</v>
       </c>
       <c r="H59" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12500</v>
       </c>
       <c r="I59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="J59" s="5">
         <v>12760</v>
       </c>
       <c r="K59" s="14">
-        <f>C59-M59</f>
+        <f t="shared" si="13"/>
         <v>44865</v>
       </c>
       <c r="L59" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="M59">
         <v>12</v>
       </c>
       <c r="N59">
-        <f>IF(AND(E60=E59,C60=C59),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q59" s="10" t="s">
@@ -6791,7 +6791,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -6815,33 +6815,33 @@
         <v>EQVPS8470R</v>
       </c>
       <c r="H60" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>53500</v>
       </c>
       <c r="I60" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1738</v>
       </c>
       <c r="J60" s="5">
         <v>55238</v>
       </c>
       <c r="K60" s="14">
-        <f>C60-M60</f>
+        <f t="shared" si="13"/>
         <v>44888</v>
       </c>
       <c r="L60" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.2485981308411217E-2</v>
       </c>
       <c r="M60">
         <v>19</v>
       </c>
       <c r="N60">
-        <f>IF(AND(E61=E60,C61=C60),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q60" s="11" t="s">
@@ -6851,7 +6851,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -6875,33 +6875,33 @@
         <v>BVZPS6231E</v>
       </c>
       <c r="H61" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>972500</v>
       </c>
       <c r="I61" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>29851</v>
       </c>
       <c r="J61" s="5">
         <v>1002351</v>
       </c>
       <c r="K61" s="14">
-        <f>C61-M61</f>
+        <f t="shared" si="13"/>
         <v>44910</v>
       </c>
       <c r="L61" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.0695115681233932E-2</v>
       </c>
       <c r="M61">
         <v>15</v>
       </c>
       <c r="N61">
-        <f>IF(AND(E62=E61,C62=C61),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q61" s="10" t="s">
@@ -6911,7 +6911,7 @@
         <v>1688311</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -6935,33 +6935,33 @@
         <v>EVSPS3715R</v>
       </c>
       <c r="H62" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>970500</v>
       </c>
       <c r="I62" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>29758</v>
       </c>
       <c r="J62" s="5">
         <v>1000258</v>
       </c>
       <c r="K62" s="14">
-        <f>C62-M62</f>
+        <f t="shared" si="13"/>
         <v>44950</v>
       </c>
       <c r="L62" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.0662545079855743E-2</v>
       </c>
       <c r="M62">
         <v>18</v>
       </c>
       <c r="N62">
-        <f>IF(AND(E63=E62,C63=C62),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q62" s="11" t="s">
@@ -6971,7 +6971,7 @@
         <v>389891</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -6995,33 +6995,33 @@
         <v>BBEPS9472G</v>
       </c>
       <c r="H63" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>210500</v>
       </c>
       <c r="I63" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6374</v>
       </c>
       <c r="J63" s="5">
         <v>216874</v>
       </c>
       <c r="K63" s="14">
-        <f>C63-M63</f>
+        <f t="shared" si="13"/>
         <v>44679</v>
       </c>
       <c r="L63" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.0280285035629455E-2</v>
       </c>
       <c r="M63">
         <v>11</v>
       </c>
       <c r="N63">
-        <f>IF(AND(E64=E63,C64=C63),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q63" s="11" t="s">
@@ -7031,7 +7031,7 @@
         <v>389877</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -7055,33 +7055,33 @@
         <v>BBEPS9472G</v>
       </c>
       <c r="H64" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11500</v>
       </c>
       <c r="I64" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>177</v>
       </c>
       <c r="J64" s="5">
         <v>11677</v>
       </c>
       <c r="K64" s="14">
-        <f>C64-M64</f>
+        <f t="shared" si="13"/>
         <v>44735</v>
       </c>
       <c r="L64" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.5391304347826087E-2</v>
       </c>
       <c r="M64">
         <v>15</v>
       </c>
       <c r="N64">
-        <f>IF(AND(E65=E64,C65=C64),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q64" s="11" t="s">
@@ -7091,7 +7091,7 @@
         <v>908543</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -7115,33 +7115,33 @@
         <v>BBEPS9472G</v>
       </c>
       <c r="H65" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>158500</v>
       </c>
       <c r="I65" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4944</v>
       </c>
       <c r="J65" s="5">
         <v>163444</v>
       </c>
       <c r="K65" s="14">
-        <f>C65-M65</f>
+        <f t="shared" si="13"/>
         <v>44774</v>
       </c>
       <c r="L65" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.1192429022082017E-2</v>
       </c>
       <c r="M65">
         <v>9</v>
       </c>
       <c r="N65">
-        <f>IF(AND(E66=E65,C66=C65),1,)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q65" s="10" t="s">
@@ -7151,7 +7151,7 @@
         <v>420845</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -7175,33 +7175,33 @@
         <v>BBEPS9472G</v>
       </c>
       <c r="H66" s="7">
-        <f t="shared" ref="H66:H97" si="7">MROUND((J66*0.97),500)</f>
+        <f t="shared" ref="H66:H97" si="14">MROUND((J66*0.97),500)</f>
         <v>20000</v>
       </c>
       <c r="I66" s="8">
-        <f t="shared" ref="I66:I97" si="8">J66-H66</f>
+        <f t="shared" ref="I66:I97" si="15">J66-H66</f>
         <v>813</v>
       </c>
       <c r="J66" s="5">
         <v>20813</v>
       </c>
       <c r="K66" s="14">
-        <f>C66-M66</f>
+        <f t="shared" si="13"/>
         <v>44802</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" ref="L66:L97" si="9">I66/H66</f>
+        <f t="shared" ref="L66:L97" si="16">I66/H66</f>
         <v>4.0649999999999999E-2</v>
       </c>
       <c r="M66">
         <v>14</v>
       </c>
       <c r="N66">
-        <f>IF(AND(E67=E66,C67=C66),1,)</f>
+        <f t="shared" ref="N66:N97" si="17">IF(AND(E67=E66,C67=C66),1,)</f>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q66" s="11" t="s">
@@ -7211,7 +7211,7 @@
         <v>420845</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -7235,33 +7235,33 @@
         <v>BBEPS9472G</v>
       </c>
       <c r="H67" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>60500</v>
       </c>
       <c r="I67" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1875</v>
       </c>
       <c r="J67" s="5">
         <v>62375</v>
       </c>
       <c r="K67" s="14">
-        <f>C67-M67</f>
+        <f t="shared" si="13"/>
         <v>44861</v>
       </c>
       <c r="L67" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.0991735537190084E-2</v>
       </c>
       <c r="M67">
         <v>16</v>
       </c>
       <c r="N67">
-        <f>IF(AND(E68=E67,C68=C67),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O130" si="10">IF(N67&gt;0,K67-K68,1)</f>
+        <f t="shared" ref="O67:O130" si="18">IF(N67&gt;0,K67-K68,1)</f>
         <v>1</v>
       </c>
       <c r="Q67" s="10" t="s">
@@ -7271,7 +7271,7 @@
         <v>28675643</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -7295,38 +7295,38 @@
         <v>BBEPS9472G</v>
       </c>
       <c r="H68" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>120500</v>
       </c>
       <c r="I68" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3752</v>
       </c>
       <c r="J68" s="5">
         <v>124252</v>
       </c>
       <c r="K68" s="14">
-        <f>C68-M68</f>
+        <f t="shared" si="13"/>
         <v>44896</v>
       </c>
       <c r="L68" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.1136929460580914E-2</v>
       </c>
       <c r="M68">
         <v>11</v>
       </c>
       <c r="N68">
-        <f>IF(AND(E69=E68,C69=C68),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -7350,38 +7350,38 @@
         <v>BRUPS3896N</v>
       </c>
       <c r="H69" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>583000</v>
       </c>
       <c r="I69" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>18257</v>
       </c>
       <c r="J69" s="5">
         <v>601257</v>
       </c>
       <c r="K69" s="14">
-        <f>C69-M69</f>
+        <f t="shared" si="13"/>
         <v>44914</v>
       </c>
       <c r="L69" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.1315608919382502E-2</v>
       </c>
       <c r="M69">
         <v>11</v>
       </c>
       <c r="N69">
-        <f>IF(AND(E70=E69,C70=C69),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -7405,38 +7405,38 @@
         <v>BBEPS9472G</v>
       </c>
       <c r="H70" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>48000</v>
       </c>
       <c r="I70" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1508</v>
       </c>
       <c r="J70" s="5">
         <v>49508</v>
       </c>
       <c r="K70" s="14">
-        <f>C70-M70</f>
+        <f t="shared" si="13"/>
         <v>44923</v>
       </c>
       <c r="L70" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.1416666666666669E-2</v>
       </c>
       <c r="M70">
         <v>12</v>
       </c>
       <c r="N70">
-        <f>IF(AND(E71=E70,C71=C70),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R70"/>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -7460,38 +7460,38 @@
         <v>BBEPS9472G</v>
       </c>
       <c r="H71" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>16500</v>
       </c>
       <c r="I71" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>360</v>
       </c>
       <c r="J71" s="5">
         <v>16860</v>
       </c>
       <c r="K71" s="14">
-        <f>C71-M71</f>
+        <f t="shared" si="13"/>
         <v>44952</v>
       </c>
       <c r="L71" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2.181818181818182E-2</v>
       </c>
       <c r="M71">
         <v>16</v>
       </c>
       <c r="N71">
-        <f>IF(AND(E72=E71,C72=C71),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R71"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -7515,38 +7515,38 @@
         <v>BBEPS9472G</v>
       </c>
       <c r="H72" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>61500</v>
       </c>
       <c r="I72" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2013</v>
       </c>
       <c r="J72" s="5">
         <v>63513</v>
       </c>
       <c r="K72" s="14">
-        <f>C72-M72</f>
+        <f t="shared" si="13"/>
         <v>44984</v>
       </c>
       <c r="L72" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.2731707317073172E-2</v>
       </c>
       <c r="M72">
         <v>7</v>
       </c>
       <c r="N72">
-        <f>IF(AND(E73=E72,C73=C72),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R72"/>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -7570,38 +7570,38 @@
         <v>AVQPS5445L</v>
       </c>
       <c r="H73" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>136500</v>
       </c>
       <c r="I73" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4393</v>
       </c>
       <c r="J73" s="5">
         <v>140893</v>
       </c>
       <c r="K73" s="14">
-        <f>C73-M73</f>
+        <f t="shared" si="13"/>
         <v>44673</v>
       </c>
       <c r="L73" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.2183150183150183E-2</v>
       </c>
       <c r="M73">
         <v>17</v>
       </c>
       <c r="N73">
-        <f>IF(AND(E74=E73,C74=C73),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R73"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -7625,38 +7625,38 @@
         <v>AVQPS5445L</v>
       </c>
       <c r="H74" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9500</v>
       </c>
       <c r="I74" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>533</v>
       </c>
       <c r="J74" s="5">
         <v>10033</v>
       </c>
       <c r="K74" s="14">
-        <f>C74-M74</f>
+        <f t="shared" si="13"/>
         <v>44712</v>
       </c>
       <c r="L74" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>5.6105263157894734E-2</v>
       </c>
       <c r="M74">
         <v>16</v>
       </c>
       <c r="N74">
-        <f>IF(AND(E75=E74,C75=C74),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R74"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -7680,38 +7680,38 @@
         <v>AVQPS5445L</v>
       </c>
       <c r="H75" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>44000</v>
       </c>
       <c r="I75" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1574</v>
       </c>
       <c r="J75" s="5">
         <v>45574</v>
       </c>
       <c r="K75" s="14">
-        <f>C75-M75</f>
+        <f t="shared" si="13"/>
         <v>44775</v>
       </c>
       <c r="L75" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.5772727272727275E-2</v>
       </c>
       <c r="M75">
         <v>8</v>
       </c>
       <c r="N75">
-        <f>IF(AND(E76=E75,C76=C75),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -7735,38 +7735,38 @@
         <v>AVQPS5445L</v>
       </c>
       <c r="H76" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>55000</v>
       </c>
       <c r="I76" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1574</v>
       </c>
       <c r="J76" s="5">
         <v>56574</v>
       </c>
       <c r="K76" s="14">
-        <f>C76-M76</f>
+        <f t="shared" si="13"/>
         <v>44807</v>
       </c>
       <c r="L76" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2.8618181818181817E-2</v>
       </c>
       <c r="M76">
         <v>9</v>
       </c>
       <c r="N76">
-        <f>IF(AND(E77=E76,C77=C76),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R76"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -7790,38 +7790,38 @@
         <v>AVQPS5445L</v>
       </c>
       <c r="H77" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>80000</v>
       </c>
       <c r="I77" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2219</v>
       </c>
       <c r="J77" s="5">
         <v>82219</v>
       </c>
       <c r="K77" s="14">
-        <f>C77-M77</f>
+        <f t="shared" si="13"/>
         <v>44830</v>
       </c>
       <c r="L77" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2.7737499999999998E-2</v>
       </c>
       <c r="M77">
         <v>14</v>
       </c>
       <c r="N77">
-        <f>IF(AND(E78=E77,C78=C77),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R77"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -7845,38 +7845,38 @@
         <v>AVQPS5445L</v>
       </c>
       <c r="H78" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15000</v>
       </c>
       <c r="I78" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>678</v>
       </c>
       <c r="J78" s="5">
         <v>15678</v>
       </c>
       <c r="K78" s="14">
-        <f>C78-M78</f>
+        <f t="shared" si="13"/>
         <v>44889</v>
       </c>
       <c r="L78" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="M78">
         <v>18</v>
       </c>
       <c r="N78">
-        <f>IF(AND(E79=E78,C79=C78),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R78"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -7900,38 +7900,38 @@
         <v>AVQPS5445L</v>
       </c>
       <c r="H79" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>39000</v>
       </c>
       <c r="I79" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1429</v>
       </c>
       <c r="J79" s="5">
         <v>40429</v>
       </c>
       <c r="K79" s="14">
-        <f>C79-M79</f>
+        <f t="shared" si="13"/>
         <v>44919</v>
       </c>
       <c r="L79" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.6641025641025643E-2</v>
       </c>
       <c r="M79">
         <v>16</v>
       </c>
       <c r="N79">
-        <f>IF(AND(E80=E79,C80=C79),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R79"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -7955,38 +7955,38 @@
         <v>AVQPS5445L</v>
       </c>
       <c r="H80" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>21000</v>
       </c>
       <c r="I80" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>685</v>
       </c>
       <c r="J80" s="5">
         <v>21685</v>
       </c>
       <c r="K80" s="14">
-        <f>C80-M80</f>
+        <f t="shared" si="13"/>
         <v>44957</v>
       </c>
       <c r="L80" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.2619047619047617E-2</v>
       </c>
       <c r="M80">
         <v>11</v>
       </c>
       <c r="N80">
-        <f>IF(AND(E81=E80,C81=C80),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R80"/>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -8010,11 +8010,11 @@
         <v>AVQPS5445L</v>
       </c>
       <c r="H81" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6500</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>54</v>
       </c>
       <c r="J81" s="5">
@@ -8024,23 +8024,23 @@
         <v>45016</v>
       </c>
       <c r="L81" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>8.3076923076923076E-3</v>
       </c>
       <c r="M81">
         <v>11</v>
       </c>
       <c r="N81">
-        <f>IF(AND(E82=E81,C82=C81),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R81"/>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -8064,11 +8064,11 @@
         <v>ADCPM6013E</v>
       </c>
       <c r="H82" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>169000</v>
       </c>
       <c r="I82" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>5233</v>
       </c>
       <c r="J82" s="5">
@@ -8078,23 +8078,23 @@
         <v>45016</v>
       </c>
       <c r="L82" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.0964497041420118E-2</v>
       </c>
       <c r="M82">
         <v>18</v>
       </c>
       <c r="N82">
-        <f>IF(AND(E83=E82,C83=C82),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R82"/>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -8118,38 +8118,38 @@
         <v>AMZPV8765C</v>
       </c>
       <c r="H83" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>176000</v>
       </c>
       <c r="I83" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>5256</v>
       </c>
       <c r="J83" s="5">
         <v>181256</v>
       </c>
       <c r="K83" s="14">
-        <f>C83-M83</f>
+        <f t="shared" ref="K83:K110" si="19">C83-M83</f>
         <v>44709</v>
       </c>
       <c r="L83" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2.9863636363636363E-2</v>
       </c>
       <c r="M83">
         <v>19</v>
       </c>
       <c r="N83">
-        <f>IF(AND(E84=E83,C84=C83),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R83"/>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -8173,38 +8173,38 @@
         <v>AMZPV8765C</v>
       </c>
       <c r="H84" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>242500</v>
       </c>
       <c r="I84" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
       <c r="J84" s="5">
         <v>250000</v>
       </c>
       <c r="K84" s="14">
-        <f>C84-M84</f>
+        <f t="shared" si="19"/>
         <v>44840</v>
       </c>
       <c r="L84" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.0927835051546393E-2</v>
       </c>
       <c r="M84">
         <v>14</v>
       </c>
       <c r="N84">
-        <f>IF(AND(E85=E84,C85=C84),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R84"/>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -8228,38 +8228,38 @@
         <v>AMZPV8765C</v>
       </c>
       <c r="H85" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>279500</v>
       </c>
       <c r="I85" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>8623</v>
       </c>
       <c r="J85" s="5">
         <v>288123</v>
       </c>
       <c r="K85" s="14">
-        <f>C85-M85</f>
+        <f t="shared" si="19"/>
         <v>44938</v>
       </c>
       <c r="L85" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.0851520572450806E-2</v>
       </c>
       <c r="M85">
         <v>12</v>
       </c>
       <c r="N85">
-        <f>IF(AND(E86=E85,C86=C85),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R85"/>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -8283,38 +8283,38 @@
         <v>AAAPU3763E</v>
       </c>
       <c r="H86" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>34500</v>
       </c>
       <c r="I86" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1302</v>
       </c>
       <c r="J86" s="5">
         <v>35802</v>
       </c>
       <c r="K86" s="14">
-        <f>C86-M86</f>
+        <f t="shared" si="19"/>
         <v>44678</v>
       </c>
       <c r="L86" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.7739130434782608E-2</v>
       </c>
       <c r="M86">
         <v>12</v>
       </c>
       <c r="N86">
-        <f>IF(AND(E87=E86,C87=C86),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R86"/>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -8338,38 +8338,38 @@
         <v>AAAPU3763E</v>
       </c>
       <c r="H87" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>31500</v>
       </c>
       <c r="I87" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>926</v>
       </c>
       <c r="J87" s="5">
         <v>32426</v>
       </c>
       <c r="K87" s="14">
-        <f>C87-M87</f>
+        <f t="shared" si="19"/>
         <v>44769</v>
       </c>
       <c r="L87" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2.9396825396825397E-2</v>
       </c>
       <c r="M87">
         <v>14</v>
       </c>
       <c r="N87">
-        <f>IF(AND(E88=E87,C88=C87),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R87"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -8393,38 +8393,38 @@
         <v>AAAPU3763E</v>
       </c>
       <c r="H88" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2500</v>
       </c>
       <c r="I88" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>59</v>
       </c>
       <c r="J88" s="5">
         <v>2559</v>
       </c>
       <c r="K88" s="14">
-        <f>C88-M88</f>
+        <f t="shared" si="19"/>
         <v>44809</v>
       </c>
       <c r="L88" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2.3599999999999999E-2</v>
       </c>
       <c r="M88">
         <v>7</v>
       </c>
       <c r="N88">
-        <f>IF(AND(E89=E88,C89=C88),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R88"/>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -8448,38 +8448,38 @@
         <v>AAAPU3763E</v>
       </c>
       <c r="H89" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>18000</v>
       </c>
       <c r="I89" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>359</v>
       </c>
       <c r="J89" s="5">
         <v>18359</v>
       </c>
       <c r="K89" s="14">
-        <f>C89-M89</f>
+        <f t="shared" si="19"/>
         <v>44830</v>
       </c>
       <c r="L89" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1.9944444444444445E-2</v>
       </c>
       <c r="M89">
         <v>14</v>
       </c>
       <c r="N89">
-        <f>IF(AND(E90=E89,C90=C89),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R89"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -8503,38 +8503,38 @@
         <v>AAAPU3763E</v>
       </c>
       <c r="H90" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>11000</v>
       </c>
       <c r="I90" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>589</v>
       </c>
       <c r="J90" s="5">
         <v>11589</v>
       </c>
       <c r="K90" s="14">
-        <f>C90-M90</f>
+        <f t="shared" si="19"/>
         <v>44862</v>
       </c>
       <c r="L90" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>5.3545454545454549E-2</v>
       </c>
       <c r="M90">
         <v>15</v>
       </c>
       <c r="N90">
-        <f>IF(AND(E91=E90,C91=C90),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R90"/>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -8558,38 +8558,38 @@
         <v>AAAPU3763E</v>
       </c>
       <c r="H91" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23500</v>
       </c>
       <c r="I91" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>771</v>
       </c>
       <c r="J91" s="5">
         <v>24271</v>
       </c>
       <c r="K91" s="14">
-        <f>C91-M91</f>
+        <f t="shared" si="19"/>
         <v>44890</v>
       </c>
       <c r="L91" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.2808510638297872E-2</v>
       </c>
       <c r="M91">
         <v>17</v>
       </c>
       <c r="N91">
-        <f>IF(AND(E92=E91,C92=C91),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R91"/>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -8613,38 +8613,38 @@
         <v>AAAPU3763E</v>
       </c>
       <c r="H92" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>20500</v>
       </c>
       <c r="I92" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>866</v>
       </c>
       <c r="J92" s="5">
         <v>21366</v>
       </c>
       <c r="K92" s="14">
-        <f>C92-M92</f>
+        <f t="shared" si="19"/>
         <v>44919</v>
       </c>
       <c r="L92" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.2243902439024393E-2</v>
       </c>
       <c r="M92">
         <v>16</v>
       </c>
       <c r="N92">
-        <f>IF(AND(E93=E92,C93=C92),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R92"/>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -8663,43 +8663,42 @@
       <c r="F93" t="s">
         <v>40</v>
       </c>
-      <c r="G93" t="e">
-        <f>VLOOKUP(F93,[1]Master!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G93" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H93" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>120500</v>
       </c>
       <c r="I93" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3814</v>
       </c>
       <c r="J93" s="5">
         <v>124314</v>
       </c>
       <c r="K93" s="15">
-        <f>C93-M93</f>
+        <f t="shared" si="19"/>
         <v>44681</v>
       </c>
       <c r="L93" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.1651452282157676E-2</v>
       </c>
       <c r="M93">
         <v>9</v>
       </c>
       <c r="N93">
-        <f>IF(AND(E94=E93,C94=C93),1,)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R93"/>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -8723,38 +8722,38 @@
         <v>AGLPV6387L</v>
       </c>
       <c r="H94" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>120500</v>
       </c>
       <c r="I94" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3815</v>
       </c>
       <c r="J94" s="5">
         <v>124315</v>
       </c>
       <c r="K94" s="14">
-        <f>C94-M94</f>
+        <f t="shared" si="19"/>
         <v>44681</v>
       </c>
       <c r="L94" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.1659751037344398E-2</v>
       </c>
       <c r="M94">
         <v>9</v>
       </c>
       <c r="N94">
-        <f>IF(AND(E95=E94,C95=C94),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R94"/>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -8778,38 +8777,38 @@
         <v>AGLPV6387L</v>
       </c>
       <c r="H95" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>18000</v>
       </c>
       <c r="I95" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>738</v>
       </c>
       <c r="J95" s="5">
         <v>18738</v>
       </c>
       <c r="K95" s="14">
-        <f>C95-M95</f>
+        <f t="shared" si="19"/>
         <v>44713</v>
       </c>
       <c r="L95" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="M95">
         <v>16</v>
       </c>
       <c r="N95">
-        <f>IF(AND(E96=E95,C96=C95),1,)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R95"/>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -8828,43 +8827,42 @@
       <c r="F96" t="s">
         <v>40</v>
       </c>
-      <c r="G96" t="e">
-        <f>VLOOKUP(F96,[1]Master!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G96" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H96" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>18000</v>
       </c>
       <c r="I96" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>738</v>
       </c>
       <c r="J96" s="5">
         <v>18738</v>
       </c>
       <c r="K96" s="14">
-        <f>C96-M96</f>
+        <f t="shared" si="19"/>
         <v>44713</v>
       </c>
       <c r="L96" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="M96">
         <v>16</v>
       </c>
       <c r="N96">
-        <f>IF(AND(E97=E96,C97=C96),1,)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R96"/>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -8888,38 +8886,38 @@
         <v>AGLPV6387L</v>
       </c>
       <c r="H97" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>39500</v>
       </c>
       <c r="I97" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1277</v>
       </c>
       <c r="J97" s="5">
         <v>40777</v>
       </c>
       <c r="K97" s="14">
-        <f>C97-M97</f>
+        <f t="shared" si="19"/>
         <v>44736</v>
       </c>
       <c r="L97" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.2329113924050634E-2</v>
       </c>
       <c r="M97">
         <v>14</v>
       </c>
       <c r="N97">
-        <f>IF(AND(E98=E97,C98=C97),1,)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R97"/>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -8938,43 +8936,42 @@
       <c r="F98" t="s">
         <v>40</v>
       </c>
-      <c r="G98" t="e">
-        <f>VLOOKUP(F98,[1]Master!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G98" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H98" s="7">
-        <f t="shared" ref="H98:H111" si="11">MROUND((J98*0.97),500)</f>
+        <f t="shared" ref="H98:H111" si="20">MROUND((J98*0.97),500)</f>
         <v>39500</v>
       </c>
       <c r="I98" s="8">
-        <f t="shared" ref="I98:I129" si="12">J98-H98</f>
+        <f t="shared" ref="I98:I129" si="21">J98-H98</f>
         <v>1278</v>
       </c>
       <c r="J98" s="5">
         <v>40778</v>
       </c>
       <c r="K98" s="14">
-        <f>C98-M98</f>
+        <f t="shared" si="19"/>
         <v>44736</v>
       </c>
       <c r="L98" s="9">
-        <f t="shared" ref="L98:L129" si="13">I98/H98</f>
+        <f t="shared" ref="L98:L129" si="22">I98/H98</f>
         <v>3.2354430379746835E-2</v>
       </c>
       <c r="M98">
         <v>14</v>
       </c>
       <c r="N98">
-        <f>IF(AND(E99=E98,C99=C98),1,)</f>
+        <f t="shared" ref="N98:N129" si="23">IF(AND(E99=E98,C99=C98),1,)</f>
         <v>0</v>
       </c>
       <c r="O98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -8993,43 +8990,42 @@
       <c r="F99" t="s">
         <v>40</v>
       </c>
-      <c r="G99" t="e">
-        <f>VLOOKUP(F99,[1]Master!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G99" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H99" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>80500</v>
       </c>
       <c r="I99" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>2290</v>
       </c>
       <c r="J99" s="5">
         <v>82790</v>
       </c>
       <c r="K99" s="14">
-        <f>C99-M99</f>
+        <f t="shared" si="19"/>
         <v>44768</v>
       </c>
       <c r="L99" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.8447204968944099E-2</v>
       </c>
       <c r="M99">
         <v>15</v>
       </c>
       <c r="N99">
-        <f>IF(AND(E100=E99,C100=C99),1,)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R99"/>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -9053,38 +9049,38 @@
         <v>AGLPV6387L</v>
       </c>
       <c r="H100" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>80500</v>
       </c>
       <c r="I100" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>2291</v>
       </c>
       <c r="J100" s="5">
         <v>82791</v>
       </c>
       <c r="K100" s="14">
-        <f>C100-M100</f>
+        <f t="shared" si="19"/>
         <v>44768</v>
       </c>
       <c r="L100" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.8459627329192546E-2</v>
       </c>
       <c r="M100">
         <v>15</v>
       </c>
       <c r="N100">
-        <f>IF(AND(E101=E100,C101=C100),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R100"/>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -9108,38 +9104,38 @@
         <v>AGLPV6387L</v>
       </c>
       <c r="H101" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>18500</v>
       </c>
       <c r="I101" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>533</v>
       </c>
       <c r="J101" s="5">
         <v>19033</v>
       </c>
       <c r="K101" s="14">
-        <f>C101-M101</f>
+        <f t="shared" si="19"/>
         <v>44863</v>
       </c>
       <c r="L101" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.881081081081081E-2</v>
       </c>
       <c r="M101">
         <v>14</v>
       </c>
       <c r="N101">
-        <f>IF(AND(E102=E101,C102=C101),1,)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R101"/>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -9158,43 +9154,42 @@
       <c r="F102" t="s">
         <v>40</v>
       </c>
-      <c r="G102" t="e">
-        <f>VLOOKUP(F102,[1]Master!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G102" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H102" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>18500</v>
       </c>
       <c r="I102" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>532</v>
       </c>
       <c r="J102" s="5">
         <v>19032</v>
       </c>
       <c r="K102" s="14">
-        <f>C102-M102</f>
+        <f t="shared" si="19"/>
         <v>44863</v>
       </c>
       <c r="L102" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.8756756756756756E-2</v>
       </c>
       <c r="M102">
         <v>14</v>
       </c>
       <c r="N102">
-        <f>IF(AND(E103=E102,C103=C102),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R102"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -9213,43 +9208,42 @@
       <c r="F103" t="s">
         <v>40</v>
       </c>
-      <c r="G103" t="e">
-        <f>VLOOKUP(F103,[1]Master!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G103" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H103" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>75500</v>
       </c>
       <c r="I103" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>2335</v>
       </c>
       <c r="J103" s="5">
         <v>77835</v>
       </c>
       <c r="K103" s="14">
-        <f>C103-M103</f>
+        <f t="shared" si="19"/>
         <v>44891</v>
       </c>
       <c r="L103" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.0927152317880794E-2</v>
       </c>
       <c r="M103">
         <v>16</v>
       </c>
       <c r="N103">
-        <f>IF(AND(E104=E103,C104=C103),1,)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R103"/>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -9273,38 +9267,38 @@
         <v>AGLPV6387L</v>
       </c>
       <c r="H104" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>75500</v>
       </c>
       <c r="I104" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>2335</v>
       </c>
       <c r="J104" s="5">
         <v>77835</v>
       </c>
       <c r="K104" s="14">
-        <f>C104-M104</f>
+        <f t="shared" si="19"/>
         <v>44891</v>
       </c>
       <c r="L104" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.0927152317880794E-2</v>
       </c>
       <c r="M104">
         <v>16</v>
       </c>
       <c r="N104">
-        <f>IF(AND(E105=E104,C105=C104),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="R104"/>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -9323,42 +9317,41 @@
       <c r="F105" t="s">
         <v>40</v>
       </c>
-      <c r="G105" t="e">
-        <f>VLOOKUP(F105,[1]Master!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G105" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H105" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>75000</v>
       </c>
       <c r="I105" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>2165</v>
       </c>
       <c r="J105" s="5">
         <v>77165</v>
       </c>
       <c r="K105" s="14">
-        <f>C105-M105</f>
+        <f t="shared" si="19"/>
         <v>44918</v>
       </c>
       <c r="L105" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.8866666666666665E-2</v>
       </c>
       <c r="M105">
         <v>19</v>
       </c>
       <c r="N105">
-        <f>IF(AND(E106=E105,C106=C105),1,)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O105">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -9382,37 +9375,37 @@
         <v>AGLPV6387L</v>
       </c>
       <c r="H106" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>75000</v>
       </c>
       <c r="I106" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>2165</v>
       </c>
       <c r="J106" s="5">
         <v>77165</v>
       </c>
       <c r="K106" s="14">
-        <f>C106-M106</f>
+        <f t="shared" si="19"/>
         <v>44918</v>
       </c>
       <c r="L106" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.8866666666666665E-2</v>
       </c>
       <c r="M106">
         <v>19</v>
       </c>
       <c r="N106">
-        <f>IF(AND(E107=E106,C107=C106),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O106">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -9431,42 +9424,41 @@
       <c r="F107" t="s">
         <v>40</v>
       </c>
-      <c r="G107" t="e">
-        <f>VLOOKUP(F107,[1]Master!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G107" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H107" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>56500</v>
       </c>
       <c r="I107" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1756</v>
       </c>
       <c r="J107" s="5">
         <v>58256</v>
       </c>
       <c r="K107" s="14">
-        <f>C107-M107</f>
+        <f t="shared" si="19"/>
         <v>44950</v>
       </c>
       <c r="L107" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.1079646017699115E-2</v>
       </c>
       <c r="M107">
         <v>18</v>
       </c>
       <c r="N107">
-        <f>IF(AND(E108=E107,C108=C107),1,)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O107">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -9490,37 +9482,37 @@
         <v>AGLPV6387L</v>
       </c>
       <c r="H108" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>56500</v>
       </c>
       <c r="I108" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1756</v>
       </c>
       <c r="J108" s="5">
         <v>58256</v>
       </c>
       <c r="K108" s="14">
-        <f>C108-M108</f>
+        <f t="shared" si="19"/>
         <v>44950</v>
       </c>
       <c r="L108" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.1079646017699115E-2</v>
       </c>
       <c r="M108">
         <v>18</v>
       </c>
       <c r="N108">
-        <f>IF(AND(E109=E108,C109=C108),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O108">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -9544,37 +9536,37 @@
         <v>AGLPV6387L</v>
       </c>
       <c r="H109" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>17000</v>
       </c>
       <c r="I109" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>495</v>
       </c>
       <c r="J109" s="5">
         <v>17495</v>
       </c>
       <c r="K109" s="14">
-        <f>C109-M109</f>
+        <f t="shared" si="19"/>
         <v>44977</v>
       </c>
       <c r="L109" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.9117647058823529E-2</v>
       </c>
       <c r="M109">
         <v>14</v>
       </c>
       <c r="N109">
-        <f>IF(AND(E110=E109,C110=C109),1,)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O109">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -9593,42 +9585,41 @@
       <c r="F110" t="s">
         <v>40</v>
       </c>
-      <c r="G110" t="e">
-        <f>VLOOKUP(F110,[1]Master!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G110" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H110" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>17000</v>
       </c>
       <c r="I110" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>496</v>
       </c>
       <c r="J110" s="5">
         <v>17496</v>
       </c>
       <c r="K110" s="14">
-        <f>C110-M110</f>
+        <f t="shared" si="19"/>
         <v>44977</v>
       </c>
       <c r="L110" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.9176470588235293E-2</v>
       </c>
       <c r="M110">
         <v>14</v>
       </c>
       <c r="N110">
-        <f>IF(AND(E111=E110,C111=C110),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O110">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -9647,16 +9638,15 @@
       <c r="F111" t="s">
         <v>40</v>
       </c>
-      <c r="G111" t="e">
-        <f>VLOOKUP(F111,[1]Master!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G111" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H111" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>6000</v>
       </c>
       <c r="I111" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-61</v>
       </c>
       <c r="J111" s="5">
@@ -9666,22 +9656,22 @@
         <v>45016</v>
       </c>
       <c r="L111" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>-1.0166666666666666E-2</v>
       </c>
       <c r="M111">
         <v>13</v>
       </c>
       <c r="N111">
-        <f>IF(AND(E112=E111,C112=C111),1,)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O111">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -9708,7 +9698,7 @@
         <v>5900</v>
       </c>
       <c r="I112" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>39</v>
       </c>
       <c r="J112" s="5">
@@ -9718,22 +9708,22 @@
         <v>45016</v>
       </c>
       <c r="L112" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>6.6101694915254236E-3</v>
       </c>
       <c r="M112">
         <v>13</v>
       </c>
       <c r="N112">
-        <f>IF(AND(E113=E112,C113=C112),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O112">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -9757,37 +9747,37 @@
         <v>GQDPP9900F</v>
       </c>
       <c r="H113" s="7">
-        <f t="shared" ref="H113:H144" si="14">MROUND((J113*0.97),500)</f>
+        <f t="shared" ref="H113:H144" si="24">MROUND((J113*0.97),500)</f>
         <v>970000</v>
       </c>
       <c r="I113" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>29867</v>
       </c>
       <c r="J113" s="5">
         <v>999867</v>
       </c>
       <c r="K113" s="14">
-        <f>C113-M113</f>
+        <f t="shared" ref="K113:K126" si="25">C113-M113</f>
         <v>44805</v>
       </c>
       <c r="L113" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.0790721649484536E-2</v>
       </c>
       <c r="M113">
         <v>11</v>
       </c>
       <c r="N113">
-        <f>IF(AND(E114=E113,C114=C113),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O113">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -9811,37 +9801,37 @@
         <v>BSAPS2629L</v>
       </c>
       <c r="H114" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>970500</v>
       </c>
       <c r="I114" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>30193</v>
       </c>
       <c r="J114" s="5">
         <v>1000693</v>
       </c>
       <c r="K114" s="14">
-        <f>C114-M114</f>
+        <f t="shared" si="25"/>
         <v>44982</v>
       </c>
       <c r="L114" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.1110767645543533E-2</v>
       </c>
       <c r="M114">
         <v>18</v>
       </c>
       <c r="N114">
-        <f>IF(AND(E115=E114,C115=C114),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O114">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -9865,37 +9855,37 @@
         <v>BHEPS0820A</v>
       </c>
       <c r="H115" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>45500</v>
       </c>
       <c r="I115" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1606</v>
       </c>
       <c r="J115" s="5">
         <v>47106</v>
       </c>
       <c r="K115" s="14">
-        <f>C115-M115</f>
+        <f t="shared" si="25"/>
         <v>44672</v>
       </c>
       <c r="L115" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.52967032967033E-2</v>
       </c>
       <c r="M115">
         <v>18</v>
       </c>
       <c r="N115">
-        <f>IF(AND(E116=E115,C116=C115),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O115">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -9919,37 +9909,37 @@
         <v>BHEPS0820A</v>
       </c>
       <c r="H116" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>51500</v>
       </c>
       <c r="I116" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1687</v>
       </c>
       <c r="J116" s="5">
         <v>53187</v>
       </c>
       <c r="K116" s="14">
-        <f>C116-M116</f>
+        <f t="shared" si="25"/>
         <v>44711</v>
       </c>
       <c r="L116" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.2757281553398056E-2</v>
       </c>
       <c r="M116">
         <v>14</v>
       </c>
       <c r="N116">
-        <f>IF(AND(E117=E116,C117=C116),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O116">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -9973,37 +9963,37 @@
         <v>BHEPS0820A</v>
       </c>
       <c r="H117" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>48000</v>
       </c>
       <c r="I117" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1459</v>
       </c>
       <c r="J117" s="5">
         <v>49459</v>
       </c>
       <c r="K117" s="14">
-        <f>C117-M117</f>
+        <f t="shared" si="25"/>
         <v>44735</v>
       </c>
       <c r="L117" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.0395833333333334E-2</v>
       </c>
       <c r="M117">
         <v>15</v>
       </c>
       <c r="N117">
-        <f>IF(AND(E118=E117,C118=C117),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O117">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -10027,37 +10017,37 @@
         <v>BHEPS0820A</v>
       </c>
       <c r="H118" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>79500</v>
       </c>
       <c r="I118" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>2637</v>
       </c>
       <c r="J118" s="5">
         <v>82137</v>
       </c>
       <c r="K118" s="14">
-        <f>C118-M118</f>
+        <f t="shared" si="25"/>
         <v>44771</v>
       </c>
       <c r="L118" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.3169811320754715E-2</v>
       </c>
       <c r="M118">
         <v>12</v>
       </c>
       <c r="N118">
-        <f>IF(AND(E119=E118,C119=C118),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O118">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -10081,37 +10071,37 @@
         <v>BHEPS0820A</v>
       </c>
       <c r="H119" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>114000</v>
       </c>
       <c r="I119" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>3662</v>
       </c>
       <c r="J119" s="5">
         <v>117662</v>
       </c>
       <c r="K119" s="14">
-        <f>C119-M119</f>
+        <f t="shared" si="25"/>
         <v>44798</v>
       </c>
       <c r="L119" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.2122807017543858E-2</v>
       </c>
       <c r="M119">
         <v>18</v>
       </c>
       <c r="N119">
-        <f>IF(AND(E120=E119,C120=C119),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O119">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -10135,37 +10125,37 @@
         <v>BHEPS0820A</v>
       </c>
       <c r="H120" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>36000</v>
       </c>
       <c r="I120" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1030</v>
       </c>
       <c r="J120" s="5">
         <v>37030</v>
       </c>
       <c r="K120" s="14">
-        <f>C120-M120</f>
+        <f t="shared" si="25"/>
         <v>44865</v>
       </c>
       <c r="L120" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.8611111111111111E-2</v>
       </c>
       <c r="M120">
         <v>12</v>
       </c>
       <c r="N120">
-        <f>IF(AND(E121=E120,C121=C120),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O120">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -10189,37 +10179,37 @@
         <v>BHEPS0820A</v>
       </c>
       <c r="H121" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>22000</v>
       </c>
       <c r="I121" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>579</v>
       </c>
       <c r="J121" s="5">
         <v>22579</v>
       </c>
       <c r="K121" s="14">
-        <f>C121-M121</f>
+        <f t="shared" si="25"/>
         <v>44900</v>
       </c>
       <c r="L121" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.6318181818181817E-2</v>
       </c>
       <c r="M121">
         <v>7</v>
       </c>
       <c r="N121">
-        <f>IF(AND(E122=E121,C122=C121),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O121">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -10243,37 +10233,37 @@
         <v>BHEPS0820A</v>
       </c>
       <c r="H122" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>291500</v>
       </c>
       <c r="I122" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>8759</v>
       </c>
       <c r="J122" s="5">
         <v>300259</v>
       </c>
       <c r="K122" s="14">
-        <f>C122-M122</f>
+        <f t="shared" si="25"/>
         <v>44907</v>
       </c>
       <c r="L122" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.0048027444253861E-2</v>
       </c>
       <c r="M122">
         <v>18</v>
       </c>
       <c r="N122">
-        <f>IF(AND(E123=E122,C123=C122),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O122">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -10297,37 +10287,37 @@
         <v>BHEPS0820A</v>
       </c>
       <c r="H123" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>66000</v>
       </c>
       <c r="I123" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1863</v>
       </c>
       <c r="J123" s="5">
         <v>67863</v>
       </c>
       <c r="K123" s="14">
-        <f>C123-M123</f>
+        <f t="shared" si="25"/>
         <v>44924</v>
       </c>
       <c r="L123" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.8227272727272726E-2</v>
       </c>
       <c r="M123">
         <v>11</v>
       </c>
       <c r="N123">
-        <f>IF(AND(E124=E123,C124=C123),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O123">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -10351,37 +10341,37 @@
         <v>BHEPS0820A</v>
       </c>
       <c r="H124" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>28000</v>
       </c>
       <c r="I124" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>708</v>
       </c>
       <c r="J124" s="5">
         <v>28708</v>
       </c>
       <c r="K124" s="14">
-        <f>C124-M124</f>
+        <f t="shared" si="25"/>
         <v>44958</v>
       </c>
       <c r="L124" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.5285714285714286E-2</v>
       </c>
       <c r="M124">
         <v>10</v>
       </c>
       <c r="N124">
-        <f>IF(AND(E125=E124,C125=C124),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O124">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -10405,37 +10395,37 @@
         <v>BHEPS0820A</v>
       </c>
       <c r="H125" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>21500</v>
       </c>
       <c r="I125" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>408</v>
       </c>
       <c r="J125" s="5">
         <v>21908</v>
       </c>
       <c r="K125" s="14">
-        <f>C125-M125</f>
+        <f t="shared" si="25"/>
         <v>44979</v>
       </c>
       <c r="L125" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.8976744186046512E-2</v>
       </c>
       <c r="M125">
         <v>12</v>
       </c>
       <c r="N125">
-        <f>IF(AND(E126=E125,C126=C125),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O125">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -10459,37 +10449,37 @@
         <v>ODMPS8473L</v>
       </c>
       <c r="H126" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>970000</v>
       </c>
       <c r="I126" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>30236</v>
       </c>
       <c r="J126" s="5">
         <v>1000236</v>
       </c>
       <c r="K126" s="14">
-        <f>C126-M126</f>
+        <f t="shared" si="25"/>
         <v>45000</v>
       </c>
       <c r="L126" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.1171134020618555E-2</v>
       </c>
       <c r="M126">
         <v>10</v>
       </c>
       <c r="N126">
-        <f>IF(AND(E127=E126,C127=C126),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O126">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -10513,11 +10503,11 @@
         <v>BHEPS0820A</v>
       </c>
       <c r="H127" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>66000</v>
       </c>
       <c r="I127" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1855</v>
       </c>
       <c r="J127" s="5">
@@ -10527,22 +10517,22 @@
         <v>45016</v>
       </c>
       <c r="L127" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.8106060606060607E-2</v>
       </c>
       <c r="M127">
         <v>17</v>
       </c>
       <c r="N127">
-        <f>IF(AND(E128=E127,C128=C127),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O127">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -10566,37 +10556,37 @@
         <v>AZJPS0827R</v>
       </c>
       <c r="H128" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>444000</v>
       </c>
       <c r="I128" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>13813</v>
       </c>
       <c r="J128" s="5">
         <v>457813</v>
       </c>
       <c r="K128" s="14">
-        <f>C128-M128</f>
+        <f t="shared" ref="K128:K139" si="26">C128-M128</f>
         <v>44672</v>
       </c>
       <c r="L128" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3.111036036036036E-2</v>
       </c>
       <c r="M128">
         <v>18</v>
       </c>
       <c r="N128">
-        <f>IF(AND(E129=E128,C129=C128),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O128">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -10620,37 +10610,37 @@
         <v>AZJPS0827R</v>
       </c>
       <c r="H129" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>23500</v>
       </c>
       <c r="I129" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>536</v>
       </c>
       <c r="J129" s="5">
         <v>24036</v>
       </c>
       <c r="K129" s="14">
-        <f>C129-M129</f>
+        <f t="shared" si="26"/>
         <v>44715</v>
       </c>
       <c r="L129" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.2808510638297873E-2</v>
       </c>
       <c r="M129">
         <v>10</v>
       </c>
       <c r="N129">
-        <f>IF(AND(E130=E129,C130=C129),1,)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O129">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -10674,37 +10664,37 @@
         <v>AZJPS0827R</v>
       </c>
       <c r="H130" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>39500</v>
       </c>
       <c r="I130" s="8">
-        <f t="shared" ref="I130:I161" si="15">J130-H130</f>
+        <f t="shared" ref="I130:I161" si="27">J130-H130</f>
         <v>1395</v>
       </c>
       <c r="J130" s="5">
         <v>40895</v>
       </c>
       <c r="K130" s="14">
-        <f>C130-M130</f>
+        <f t="shared" si="26"/>
         <v>44734</v>
       </c>
       <c r="L130" s="9">
-        <f t="shared" ref="L130:L161" si="16">I130/H130</f>
+        <f t="shared" ref="L130:L161" si="28">I130/H130</f>
         <v>3.531645569620253E-2</v>
       </c>
       <c r="M130">
         <v>16</v>
       </c>
       <c r="N130">
-        <f>IF(AND(E131=E130,C131=C130),1,)</f>
+        <f t="shared" ref="N130:N161" si="29">IF(AND(E131=E130,C131=C130),1,)</f>
         <v>0</v>
       </c>
       <c r="O130">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -10728,37 +10718,37 @@
         <v>AZJPS0827R</v>
       </c>
       <c r="H131" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>64500</v>
       </c>
       <c r="I131" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1992</v>
       </c>
       <c r="J131" s="5">
         <v>66492</v>
       </c>
       <c r="K131" s="14">
-        <f>C131-M131</f>
+        <f t="shared" si="26"/>
         <v>44767</v>
       </c>
       <c r="L131" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.0883720930232558E-2</v>
       </c>
       <c r="M131">
         <v>16</v>
       </c>
       <c r="N131">
-        <f>IF(AND(E132=E131,C132=C131),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O131">
-        <f t="shared" ref="O131:O177" si="17">IF(N131&gt;0,K131-K132,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+        <f t="shared" ref="O131:O177" si="30">IF(N131&gt;0,K131-K132,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -10782,37 +10772,37 @@
         <v>AZJPS0827R</v>
       </c>
       <c r="H132" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>138000</v>
       </c>
       <c r="I132" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>4024</v>
       </c>
       <c r="J132" s="5">
         <v>142024</v>
       </c>
       <c r="K132" s="14">
-        <f>C132-M132</f>
+        <f t="shared" si="26"/>
         <v>44805</v>
       </c>
       <c r="L132" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.9159420289855072E-2</v>
       </c>
       <c r="M132">
         <v>12</v>
       </c>
       <c r="N132">
-        <f>IF(AND(E133=E132,C133=C132),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O132">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -10836,37 +10826,37 @@
         <v>AZJPS0827R</v>
       </c>
       <c r="H133" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>176500</v>
       </c>
       <c r="I133" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>5429</v>
       </c>
       <c r="J133" s="5">
         <v>181929</v>
       </c>
       <c r="K133" s="14">
-        <f>C133-M133</f>
+        <f t="shared" si="26"/>
         <v>44832</v>
       </c>
       <c r="L133" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.0759206798866855E-2</v>
       </c>
       <c r="M133">
         <v>12</v>
       </c>
       <c r="N133">
-        <f>IF(AND(E134=E133,C134=C133),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O133">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -10890,37 +10880,37 @@
         <v>AZJPS0827R</v>
       </c>
       <c r="H134" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>148500</v>
       </c>
       <c r="I134" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>4525</v>
       </c>
       <c r="J134" s="5">
         <v>153025</v>
       </c>
       <c r="K134" s="14">
-        <f>C134-M134</f>
+        <f t="shared" si="26"/>
         <v>44887</v>
       </c>
       <c r="L134" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.0471380471380472E-2</v>
       </c>
       <c r="M134">
         <v>20</v>
       </c>
       <c r="N134">
-        <f>IF(AND(E135=E134,C135=C134),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O134">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -10944,37 +10934,37 @@
         <v>AZJPS0827R</v>
       </c>
       <c r="H135" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>43000</v>
       </c>
       <c r="I135" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1187</v>
       </c>
       <c r="J135" s="5">
         <v>44187</v>
       </c>
       <c r="K135" s="14">
-        <f>C135-M135</f>
+        <f t="shared" si="26"/>
         <v>44921</v>
       </c>
       <c r="L135" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.7604651162790698E-2</v>
       </c>
       <c r="M135">
         <v>14</v>
       </c>
       <c r="N135">
-        <f>IF(AND(E136=E135,C136=C135),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O135">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -10998,37 +10988,37 @@
         <v>AZJPS0827R</v>
       </c>
       <c r="H136" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>205000</v>
       </c>
       <c r="I136" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>6156</v>
       </c>
       <c r="J136" s="5">
         <v>211156</v>
       </c>
       <c r="K136" s="14">
-        <f>C136-M136</f>
+        <f t="shared" si="26"/>
         <v>44975</v>
       </c>
       <c r="L136" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.0029268292682928E-2</v>
       </c>
       <c r="M136">
         <v>16</v>
       </c>
       <c r="N136">
-        <f>IF(AND(E137=E136,C137=C136),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O136">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -11052,37 +11042,37 @@
         <v>BSAPS1719K</v>
       </c>
       <c r="H137" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>971000</v>
       </c>
       <c r="I137" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>30239</v>
       </c>
       <c r="J137" s="5">
         <v>1001239</v>
       </c>
       <c r="K137" s="14">
-        <f>C137-M137</f>
+        <f t="shared" si="26"/>
         <v>44981</v>
       </c>
       <c r="L137" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.1142121524201854E-2</v>
       </c>
       <c r="M137">
         <v>19</v>
       </c>
       <c r="N137">
-        <f>IF(AND(E138=E137,C138=C137),1,)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O137">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -11106,37 +11096,37 @@
         <v>CBTPS7039H</v>
       </c>
       <c r="H138" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>972500</v>
       </c>
       <c r="I138" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>30061</v>
       </c>
       <c r="J138" s="5">
         <v>1002561</v>
       </c>
       <c r="K138" s="14">
-        <f>C138-M138</f>
+        <f t="shared" si="26"/>
         <v>44981</v>
       </c>
       <c r="L138" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.0911053984575835E-2</v>
       </c>
       <c r="M138">
         <v>19</v>
       </c>
       <c r="N138">
-        <f>IF(AND(E139=E138,C139=C138),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O138">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -11160,37 +11150,37 @@
         <v>DEUPK4580J</v>
       </c>
       <c r="H139" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>972500</v>
       </c>
       <c r="I139" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>30063</v>
       </c>
       <c r="J139" s="5">
         <v>1002563</v>
       </c>
       <c r="K139" s="14">
-        <f>C139-M139</f>
+        <f t="shared" si="26"/>
         <v>45008</v>
       </c>
       <c r="L139" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.0913110539845759E-2</v>
       </c>
       <c r="M139">
         <v>8</v>
       </c>
       <c r="N139">
-        <f>IF(AND(E140=E139,C140=C139),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O139">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -11214,11 +11204,11 @@
         <v>AZJPS0827R</v>
       </c>
       <c r="H140" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>74500</v>
       </c>
       <c r="I140" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2407</v>
       </c>
       <c r="J140" s="5">
@@ -11228,22 +11218,22 @@
         <v>45016</v>
       </c>
       <c r="L140" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.2308724832214766E-2</v>
       </c>
       <c r="M140">
         <v>10</v>
       </c>
       <c r="N140">
-        <f>IF(AND(E141=E140,C141=C140),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O140">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -11267,37 +11257,37 @@
         <v>AKXPT3360M</v>
       </c>
       <c r="H141" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>96500</v>
       </c>
       <c r="I141" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2956</v>
       </c>
       <c r="J141" s="5">
         <v>99456</v>
       </c>
       <c r="K141" s="14">
-        <f>C141-M141</f>
+        <f t="shared" ref="K141:K152" si="31">C141-M141</f>
         <v>44676</v>
       </c>
       <c r="L141" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.0632124352331605E-2</v>
       </c>
       <c r="M141">
         <v>14</v>
       </c>
       <c r="N141">
-        <f>IF(AND(E142=E141,C142=C141),1,)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O141">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -11321,37 +11311,37 @@
         <v>AEQPT4039J</v>
       </c>
       <c r="H142" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>253000</v>
       </c>
       <c r="I142" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>7610</v>
       </c>
       <c r="J142" s="5">
         <v>260610</v>
       </c>
       <c r="K142" s="14">
-        <f>C142-M142</f>
+        <f t="shared" si="31"/>
         <v>44676</v>
       </c>
       <c r="L142" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.0079051383399211E-2</v>
       </c>
       <c r="M142">
         <v>14</v>
       </c>
       <c r="N142">
-        <f>IF(AND(E143=E142,C143=C142),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O142">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -11375,37 +11365,37 @@
         <v>AEQPT4039J</v>
       </c>
       <c r="H143" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>193500</v>
       </c>
       <c r="I143" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>6058</v>
       </c>
       <c r="J143" s="5">
         <v>199558</v>
       </c>
       <c r="K143" s="14">
-        <f>C143-M143</f>
+        <f t="shared" si="31"/>
         <v>44712</v>
       </c>
       <c r="L143" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.1307493540051683E-2</v>
       </c>
       <c r="M143">
         <v>13</v>
       </c>
       <c r="N143">
-        <f>IF(AND(E144=E143,C144=C143),1,)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O143">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -11429,37 +11419,37 @@
         <v>AKXPT3360M</v>
       </c>
       <c r="H144" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>126000</v>
       </c>
       <c r="I144" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>4000</v>
       </c>
       <c r="J144" s="5">
         <v>130000</v>
       </c>
       <c r="K144" s="14">
-        <f>C144-M144</f>
+        <f t="shared" si="31"/>
         <v>44712</v>
       </c>
       <c r="L144" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.1746031746031744E-2</v>
       </c>
       <c r="M144">
         <v>13</v>
       </c>
       <c r="N144">
-        <f>IF(AND(E145=E144,C145=C144),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O144">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -11483,37 +11473,37 @@
         <v>AEQPT4039J</v>
       </c>
       <c r="H145" s="7">
-        <f t="shared" ref="H145:H177" si="18">MROUND((J145*0.97),500)</f>
+        <f t="shared" ref="H145:H177" si="32">MROUND((J145*0.97),500)</f>
         <v>60000</v>
       </c>
       <c r="I145" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1771</v>
       </c>
       <c r="J145" s="5">
         <v>61771</v>
       </c>
       <c r="K145" s="14">
-        <f>C145-M145</f>
+        <f t="shared" si="31"/>
         <v>44740</v>
       </c>
       <c r="L145" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.9516666666666667E-2</v>
       </c>
       <c r="M145">
         <v>10</v>
       </c>
       <c r="N145">
-        <f>IF(AND(E146=E145,C146=C145),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O145">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -11537,37 +11527,37 @@
         <v>AEQPT4039J</v>
       </c>
       <c r="H146" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>74000</v>
       </c>
       <c r="I146" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2045</v>
       </c>
       <c r="J146" s="5">
         <v>76045</v>
       </c>
       <c r="K146" s="14">
-        <f>C146-M146</f>
+        <f t="shared" si="31"/>
         <v>44771</v>
       </c>
       <c r="L146" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.7635135135135134E-2</v>
       </c>
       <c r="M146">
         <v>12</v>
       </c>
       <c r="N146">
-        <f>IF(AND(E147=E146,C147=C146),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O146">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -11591,37 +11581,37 @@
         <v>AKXPT3360M</v>
       </c>
       <c r="H147" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>157500</v>
       </c>
       <c r="I147" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>4979</v>
       </c>
       <c r="J147" s="5">
         <v>162479</v>
       </c>
       <c r="K147" s="14">
-        <f>C147-M147</f>
+        <f t="shared" si="31"/>
         <v>44833</v>
       </c>
       <c r="L147" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.1612698412698412E-2</v>
       </c>
       <c r="M147">
         <v>11</v>
       </c>
       <c r="N147">
-        <f>IF(AND(E148=E147,C148=C147),1,)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O147">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -11645,37 +11635,37 @@
         <v>AEQPT4039J</v>
       </c>
       <c r="H148" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>157500</v>
       </c>
       <c r="I148" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>4979</v>
       </c>
       <c r="J148" s="5">
         <v>162479</v>
       </c>
       <c r="K148" s="14">
-        <f>C148-M148</f>
+        <f t="shared" si="31"/>
         <v>44833</v>
       </c>
       <c r="L148" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.1612698412698412E-2</v>
       </c>
       <c r="M148">
         <v>11</v>
       </c>
       <c r="N148">
-        <f>IF(AND(E149=E148,C149=C148),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O148">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -11699,37 +11689,37 @@
         <v>AEQPT4039J</v>
       </c>
       <c r="H149" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>47500</v>
       </c>
       <c r="I149" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1468</v>
       </c>
       <c r="J149" s="5">
         <v>48968</v>
       </c>
       <c r="K149" s="14">
-        <f>C149-M149</f>
+        <f t="shared" si="31"/>
         <v>44865</v>
       </c>
       <c r="L149" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.0905263157894738E-2</v>
       </c>
       <c r="M149">
         <v>12</v>
       </c>
       <c r="N149">
-        <f>IF(AND(E150=E149,C150=C149),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O149">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -11753,37 +11743,37 @@
         <v>AEQPT4039J</v>
       </c>
       <c r="H150" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>22000</v>
       </c>
       <c r="I150" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>734</v>
       </c>
       <c r="J150" s="5">
         <v>22734</v>
       </c>
       <c r="K150" s="14">
-        <f>C150-M150</f>
+        <f t="shared" si="31"/>
         <v>44917</v>
       </c>
       <c r="L150" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.3363636363636366E-2</v>
       </c>
       <c r="M150">
         <v>20</v>
       </c>
       <c r="N150">
-        <f>IF(AND(E151=E150,C151=C150),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O150">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -11807,37 +11797,37 @@
         <v>AKXPT3360M</v>
       </c>
       <c r="H151" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>95500</v>
       </c>
       <c r="I151" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2743</v>
       </c>
       <c r="J151" s="5">
         <v>98243</v>
       </c>
       <c r="K151" s="14">
-        <f>C151-M151</f>
+        <f t="shared" si="31"/>
         <v>44974</v>
       </c>
       <c r="L151" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.8722513089005235E-2</v>
       </c>
       <c r="M151">
         <v>17</v>
       </c>
       <c r="N151">
-        <f>IF(AND(E152=E151,C152=C151),1,)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O151">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -11861,37 +11851,37 @@
         <v>AEQPT4039J</v>
       </c>
       <c r="H152" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>158000</v>
       </c>
       <c r="I152" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>4692</v>
       </c>
       <c r="J152" s="5">
         <v>162692</v>
       </c>
       <c r="K152" s="14">
-        <f>C152-M152</f>
+        <f t="shared" si="31"/>
         <v>44974</v>
       </c>
       <c r="L152" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.9696202531645569E-2</v>
       </c>
       <c r="M152">
         <v>17</v>
       </c>
       <c r="N152">
-        <f>IF(AND(E153=E152,C153=C152),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O152">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -11915,11 +11905,11 @@
         <v>AEQPT4039J</v>
       </c>
       <c r="H153" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>129500</v>
       </c>
       <c r="I153" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3813</v>
       </c>
       <c r="J153" s="5">
@@ -11929,22 +11919,22 @@
         <v>45016</v>
       </c>
       <c r="L153" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.9444015444015443E-2</v>
       </c>
       <c r="M153">
         <v>13</v>
       </c>
       <c r="N153">
-        <f>IF(AND(E154=E153,C154=C153),1,)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O153">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -11968,11 +11958,11 @@
         <v>AKXPT3360M</v>
       </c>
       <c r="H154" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>97000</v>
       </c>
       <c r="I154" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3090</v>
       </c>
       <c r="J154" s="5">
@@ -11982,22 +11972,22 @@
         <v>45016</v>
       </c>
       <c r="L154" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.1855670103092787E-2</v>
       </c>
       <c r="M154">
         <v>13</v>
       </c>
       <c r="N154">
-        <f>IF(AND(E155=E154,C155=C154),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O154">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -12021,11 +12011,11 @@
         <v>AYYPG3364K</v>
       </c>
       <c r="H155" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>776000</v>
       </c>
       <c r="I155" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>24000</v>
       </c>
       <c r="J155" s="5">
@@ -12035,22 +12025,22 @@
         <v>44666</v>
       </c>
       <c r="L155" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.0927835051546393E-2</v>
       </c>
       <c r="M155">
         <v>14</v>
       </c>
       <c r="N155">
-        <f>IF(AND(E156=E155,C156=C155),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O155">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -12074,37 +12064,37 @@
         <v>AQXPK8198G</v>
       </c>
       <c r="H156" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>161500</v>
       </c>
       <c r="I156" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>4920</v>
       </c>
       <c r="J156" s="5">
         <v>166420</v>
       </c>
       <c r="K156" s="14">
-        <f>C156-M156</f>
+        <f t="shared" ref="K156:K177" si="33">C156-M156</f>
         <v>44680</v>
       </c>
       <c r="L156" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.046439628482972E-2</v>
       </c>
       <c r="M156">
         <v>10</v>
       </c>
       <c r="N156">
-        <f>IF(AND(E157=E156,C157=C156),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O156">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -12128,37 +12118,37 @@
         <v>AQXPK8198G</v>
       </c>
       <c r="H157" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>58500</v>
       </c>
       <c r="I157" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1739</v>
       </c>
       <c r="J157" s="5">
         <v>60239</v>
       </c>
       <c r="K157" s="14">
-        <f>C157-M157</f>
+        <f t="shared" si="33"/>
         <v>44718</v>
       </c>
       <c r="L157" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.9726495726495727E-2</v>
       </c>
       <c r="M157">
         <v>7</v>
       </c>
       <c r="N157">
-        <f>IF(AND(E158=E157,C158=C157),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O157">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -12182,37 +12172,37 @@
         <v>AQXPK8198G</v>
       </c>
       <c r="H158" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>38500</v>
       </c>
       <c r="I158" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1352</v>
       </c>
       <c r="J158" s="5">
         <v>39852</v>
       </c>
       <c r="K158" s="14">
-        <f>C158-M158</f>
+        <f t="shared" si="33"/>
         <v>44732</v>
       </c>
       <c r="L158" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.5116883116883116E-2</v>
       </c>
       <c r="M158">
         <v>18</v>
       </c>
       <c r="N158">
-        <f>IF(AND(E159=E158,C159=C158),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O158">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -12236,37 +12226,37 @@
         <v>AQXPK8198G</v>
       </c>
       <c r="H159" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>111500</v>
       </c>
       <c r="I159" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3273</v>
       </c>
       <c r="J159" s="5">
         <v>114773</v>
       </c>
       <c r="K159" s="14">
-        <f>C159-M159</f>
+        <f t="shared" si="33"/>
         <v>44768</v>
       </c>
       <c r="L159" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.9354260089686099E-2</v>
       </c>
       <c r="M159">
         <v>15</v>
       </c>
       <c r="N159">
-        <f>IF(AND(E160=E159,C160=C159),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O159">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -12290,37 +12280,37 @@
         <v>AQXPK8198G</v>
       </c>
       <c r="H160" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>76000</v>
       </c>
       <c r="I160" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2602</v>
       </c>
       <c r="J160" s="5">
         <v>78602</v>
       </c>
       <c r="K160" s="14">
-        <f>C160-M160</f>
+        <f t="shared" si="33"/>
         <v>44893</v>
       </c>
       <c r="L160" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.4236842105263156E-2</v>
       </c>
       <c r="M160">
         <v>14</v>
       </c>
       <c r="N160">
-        <f>IF(AND(E161=E160,C161=C160),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O160">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -12344,37 +12334,37 @@
         <v>AQXPK8198G</v>
       </c>
       <c r="H161" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>54500</v>
       </c>
       <c r="I161" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1841</v>
       </c>
       <c r="J161" s="5">
         <v>56341</v>
       </c>
       <c r="K161" s="14">
-        <f>C161-M161</f>
+        <f t="shared" si="33"/>
         <v>44928</v>
       </c>
       <c r="L161" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.3779816513761468E-2</v>
       </c>
       <c r="M161">
         <v>9</v>
       </c>
       <c r="N161">
-        <f>IF(AND(E162=E161,C162=C161),1,)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O161">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -12398,37 +12388,37 @@
         <v>AQXPK8198G</v>
       </c>
       <c r="H162" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>35500</v>
       </c>
       <c r="I162" s="8">
-        <f t="shared" ref="I162:I177" si="19">J162-H162</f>
+        <f t="shared" ref="I162:I177" si="34">J162-H162</f>
         <v>1348</v>
       </c>
       <c r="J162" s="5">
         <v>36848</v>
       </c>
       <c r="K162" s="14">
-        <f>C162-M162</f>
+        <f t="shared" si="33"/>
         <v>44954</v>
       </c>
       <c r="L162" s="9">
-        <f t="shared" ref="L162:L177" si="20">I162/H162</f>
+        <f t="shared" ref="L162:L177" si="35">I162/H162</f>
         <v>3.7971830985915493E-2</v>
       </c>
       <c r="M162">
         <v>14</v>
       </c>
       <c r="N162">
-        <f>IF(AND(E163=E162,C163=C162),1,)</f>
+        <f t="shared" ref="N162:N177" si="36">IF(AND(E163=E162,C163=C162),1,)</f>
         <v>0</v>
       </c>
       <c r="O162">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -12452,37 +12442,37 @@
         <v>AQXPK8198G</v>
       </c>
       <c r="H163" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>32000</v>
       </c>
       <c r="I163" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1002</v>
       </c>
       <c r="J163" s="5">
         <v>33002</v>
       </c>
       <c r="K163" s="14">
-        <f>C163-M163</f>
+        <f t="shared" si="33"/>
         <v>44975</v>
       </c>
       <c r="L163" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.13125E-2</v>
       </c>
       <c r="M163">
         <v>16</v>
       </c>
       <c r="N163">
-        <f>IF(AND(E164=E163,C164=C163),1,)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O163">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -12506,37 +12496,37 @@
         <v>BYNPG4697P</v>
       </c>
       <c r="H164" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>485000</v>
       </c>
       <c r="I164" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>15000</v>
       </c>
       <c r="J164" s="5">
         <v>500000</v>
       </c>
       <c r="K164" s="14">
-        <f>C164-M164</f>
+        <f t="shared" si="33"/>
         <v>44653</v>
       </c>
       <c r="L164" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.0927835051546393E-2</v>
       </c>
       <c r="M164">
         <v>18</v>
       </c>
       <c r="N164">
-        <f>IF(AND(E165=E164,C165=C164),1,)</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="O164">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -12560,37 +12550,37 @@
         <v>AJZPG5193Q</v>
       </c>
       <c r="H165" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>485000</v>
       </c>
       <c r="I165" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>15000</v>
       </c>
       <c r="J165" s="5">
         <v>500000</v>
       </c>
       <c r="K165" s="14">
-        <f>C165-M165</f>
+        <f t="shared" si="33"/>
         <v>44653</v>
       </c>
       <c r="L165" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.0927835051546393E-2</v>
       </c>
       <c r="M165">
         <v>18</v>
       </c>
       <c r="N165">
-        <f>IF(AND(E166=E165,C166=C165),1,)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O165">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -12614,37 +12604,37 @@
         <v>BYNPG4697P</v>
       </c>
       <c r="H166" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>29500</v>
       </c>
       <c r="I166" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>759</v>
       </c>
       <c r="J166" s="5">
         <v>30259</v>
       </c>
       <c r="K166" s="14">
-        <f>C166-M166</f>
+        <f t="shared" si="33"/>
         <v>44713</v>
       </c>
       <c r="L166" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>2.5728813559322033E-2</v>
       </c>
       <c r="M166">
         <v>14</v>
       </c>
       <c r="N166">
-        <f>IF(AND(E167=E166,C167=C166),1,)</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="O166">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -12668,37 +12658,37 @@
         <v>AJZPG5193Q</v>
       </c>
       <c r="H167" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>29500</v>
       </c>
       <c r="I167" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>760</v>
       </c>
       <c r="J167" s="5">
         <v>30260</v>
       </c>
       <c r="K167" s="14">
-        <f>C167-M167</f>
+        <f t="shared" si="33"/>
         <v>44713</v>
       </c>
       <c r="L167" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>2.5762711864406779E-2</v>
       </c>
       <c r="M167">
         <v>14</v>
       </c>
       <c r="N167">
-        <f>IF(AND(E168=E167,C168=C167),1,)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O167">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -12722,37 +12712,37 @@
         <v>BYNPG4697P</v>
       </c>
       <c r="H168" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>324500</v>
       </c>
       <c r="I168" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>9982</v>
       </c>
       <c r="J168" s="5">
         <v>334482</v>
       </c>
       <c r="K168" s="14">
-        <f>C168-M168</f>
+        <f t="shared" si="33"/>
         <v>44772</v>
       </c>
       <c r="L168" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.0761171032357475E-2</v>
       </c>
       <c r="M168">
         <v>11</v>
       </c>
       <c r="N168">
-        <f>IF(AND(E169=E168,C169=C168),1,)</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="O168">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -12776,37 +12766,37 @@
         <v>AJZPG5193Q</v>
       </c>
       <c r="H169" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>324500</v>
       </c>
       <c r="I169" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>9812</v>
       </c>
       <c r="J169" s="5">
         <v>334312</v>
       </c>
       <c r="K169" s="14">
-        <f>C169-M169</f>
+        <f t="shared" si="33"/>
         <v>44772</v>
       </c>
       <c r="L169" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.0237288135593222E-2</v>
       </c>
       <c r="M169">
         <v>11</v>
       </c>
       <c r="N169">
-        <f>IF(AND(E170=E169,C170=C169),1,)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O169">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -12830,37 +12820,37 @@
         <v>AJZPG5193Q</v>
       </c>
       <c r="H170" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>49000</v>
       </c>
       <c r="I170" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1498</v>
       </c>
       <c r="J170" s="5">
         <v>50498</v>
       </c>
       <c r="K170" s="14">
-        <f>C170-M170</f>
+        <f t="shared" si="33"/>
         <v>44858</v>
       </c>
       <c r="L170" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.0571428571428572E-2</v>
       </c>
       <c r="M170">
         <v>19</v>
       </c>
       <c r="N170">
-        <f>IF(AND(E171=E170,C171=C170),1,)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O170">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>15</v>
       </c>
@@ -12884,37 +12874,37 @@
         <v>AJZPG5193Q</v>
       </c>
       <c r="H171" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>116000</v>
       </c>
       <c r="I171" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>3750</v>
       </c>
       <c r="J171" s="5">
         <v>119750</v>
       </c>
       <c r="K171" s="14">
-        <f>C171-M171</f>
+        <f t="shared" si="33"/>
         <v>44949</v>
       </c>
       <c r="L171" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.2327586206896554E-2</v>
       </c>
       <c r="M171">
         <v>19</v>
       </c>
       <c r="N171">
-        <f>IF(AND(E172=E171,C172=C171),1,)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O171">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -12938,37 +12928,37 @@
         <v>AJZPG5193Q</v>
       </c>
       <c r="H172" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>29000</v>
       </c>
       <c r="I172" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="J172" s="5">
         <v>30000</v>
       </c>
       <c r="K172" s="14">
-        <f>C172-M172</f>
+        <f t="shared" si="33"/>
         <v>44981</v>
       </c>
       <c r="L172" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="M172">
         <v>14</v>
       </c>
       <c r="N172">
-        <f>IF(AND(E173=E172,C173=C172),1,)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O172">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -12992,37 +12982,37 @@
         <v>AVDPS5340M</v>
       </c>
       <c r="H173" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>136000</v>
       </c>
       <c r="I173" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>4370</v>
       </c>
       <c r="J173" s="5">
         <v>140370</v>
       </c>
       <c r="K173" s="14">
-        <f>C173-M173</f>
+        <f t="shared" si="33"/>
         <v>44770</v>
       </c>
       <c r="L173" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.2132352941176473E-2</v>
       </c>
       <c r="M173">
         <v>13</v>
       </c>
       <c r="N173">
-        <f>IF(AND(E174=E173,C174=C173),1,)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O173">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -13046,37 +13036,37 @@
         <v>FYPPS4176B</v>
       </c>
       <c r="H174" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>396000</v>
       </c>
       <c r="I174" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>12312</v>
       </c>
       <c r="J174" s="5">
         <v>408312</v>
       </c>
       <c r="K174" s="14">
-        <f>C174-M174</f>
+        <f t="shared" si="33"/>
         <v>44721</v>
       </c>
       <c r="L174" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.1090909090909089E-2</v>
       </c>
       <c r="M174">
         <v>7</v>
       </c>
       <c r="N174">
-        <f>IF(AND(E175=E174,C175=C174),1,)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O174">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -13100,37 +13090,37 @@
         <v>FYPPS4176B</v>
       </c>
       <c r="H175" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>485000</v>
       </c>
       <c r="I175" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>15231</v>
       </c>
       <c r="J175" s="5">
         <v>500231</v>
       </c>
       <c r="K175" s="14">
-        <f>C175-M175</f>
+        <f t="shared" si="33"/>
         <v>44953</v>
       </c>
       <c r="L175" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.1404123711340208E-2</v>
       </c>
       <c r="M175">
         <v>15</v>
       </c>
       <c r="N175">
-        <f>IF(AND(E176=E175,C176=C175),1,)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O175">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -13154,37 +13144,37 @@
         <v>ACJPD6960B</v>
       </c>
       <c r="H176" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>378000</v>
       </c>
       <c r="I176" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>11891</v>
       </c>
       <c r="J176" s="5">
         <v>389891</v>
       </c>
       <c r="K176" s="14">
-        <f>C176-M176</f>
+        <f t="shared" si="33"/>
         <v>44992</v>
       </c>
       <c r="L176" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.1457671957671955E-2</v>
       </c>
       <c r="M176">
         <v>18</v>
       </c>
       <c r="N176">
-        <f>IF(AND(E177=E176,C177=C176),1,)</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="O176">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -13208,37 +13198,37 @@
         <v>EVEPD8861F</v>
       </c>
       <c r="H177" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>378000</v>
       </c>
       <c r="I177" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>11877</v>
       </c>
       <c r="J177" s="5">
         <v>389877</v>
       </c>
       <c r="K177" s="14">
-        <f>C177-M177</f>
+        <f t="shared" si="33"/>
         <v>44992</v>
       </c>
       <c r="L177" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>3.1420634920634918E-2</v>
       </c>
       <c r="M177">
         <v>18</v>
       </c>
       <c r="N177">
-        <f>IF(AND(E178=E177,C178=C177),1,)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O177">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J179" s="5">
         <f>SUM(J2:J178)</f>
         <v>28675643</v>
